--- a/pre_model.xlsx
+++ b/pre_model.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3E456-3D42-4D34-8F00-A03A00D55857}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5DDE9-B259-4C45-B4F5-3BC6C5F69DA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,71 +397,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.75573651572127332</v>
+        <v>0.75683836906833857</v>
       </c>
       <c r="B2">
-        <v>55.583048278737188</v>
+        <v>43.502366539582553</v>
       </c>
       <c r="C2">
-        <v>115.22557167028545</v>
+        <v>104.46567133372061</v>
       </c>
       <c r="D2">
-        <v>5.3252603796694213</v>
+        <v>4.1278001958744452</v>
       </c>
       <c r="E2">
-        <v>11.039448006943156</v>
+        <v>9.9124128845066117</v>
       </c>
       <c r="F2">
-        <v>5.0684409226613353E-2</v>
+        <v>4.9658618188370529E-2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>291</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.82119587496660895</v>
+        <v>0.7071978518102997</v>
       </c>
       <c r="B3">
-        <v>69.687545646901469</v>
+        <v>22.400869468529635</v>
       </c>
       <c r="C3">
-        <v>130.64404723864675</v>
+        <v>81.500491960158527</v>
       </c>
       <c r="D3">
-        <v>7.0774606482298017</v>
+        <v>2.0023202069739723</v>
       </c>
       <c r="E3">
-        <v>13.26819727504795</v>
+        <v>7.2849887438256102</v>
       </c>
       <c r="F3">
-        <v>5.3763838531672471E-2</v>
+        <v>4.7864796558419312E-2</v>
       </c>
       <c r="G3">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.81160101676681973</v>
+        <v>0.72158717288752505</v>
       </c>
       <c r="B4">
-        <v>37.992729090757805</v>
+        <v>18.209266718083626</v>
       </c>
       <c r="C4">
-        <v>99.643003546229878</v>
+        <v>75.880683179226253</v>
       </c>
       <c r="D4">
-        <v>3.9701607893777418</v>
+        <v>1.7522900014331257</v>
       </c>
       <c r="E4">
-        <v>10.412485627711943</v>
+        <v>7.3020492530226599</v>
       </c>
       <c r="F4">
-        <v>5.2658387910536446E-2</v>
+        <v>5.0048167162581161E-2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -469,22 +469,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.77521044885002477</v>
+        <v>0.75564680726471778</v>
       </c>
       <c r="B5">
-        <v>31.917400445509561</v>
+        <v>32.964173715700589</v>
       </c>
       <c r="C5">
-        <v>94.128324058374602</v>
+        <v>94.791406573140435</v>
       </c>
       <c r="D5">
-        <v>3.0736067571159755</v>
+        <v>3.0845602497576481</v>
       </c>
       <c r="E5">
-        <v>9.0644428688905254</v>
+        <v>8.8699267045441452</v>
       </c>
       <c r="F5">
-        <v>4.9844008340021777E-2</v>
+        <v>4.8887635583308393E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -492,22 +492,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.71534615860607298</v>
+        <v>0.72904979140909187</v>
       </c>
       <c r="B6">
-        <v>26.916131536855428</v>
+        <v>23.921406667756006</v>
       </c>
       <c r="C6">
-        <v>87.151150426616027</v>
+        <v>82.837396464635617</v>
       </c>
       <c r="D6">
-        <v>2.4165651537063479</v>
+        <v>2.3017533998691451</v>
       </c>
       <c r="E6">
-        <v>7.8245431717408387</v>
+        <v>7.9707377411793994</v>
       </c>
       <c r="F6">
-        <v>4.7503672899332446E-2</v>
+        <v>4.9497584198964426E-2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -515,22 +515,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.74366454897688505</v>
+        <v>0.76525910270645014</v>
       </c>
       <c r="B7">
-        <v>21.393881239346115</v>
+        <v>41.305434508971288</v>
       </c>
       <c r="C7">
-        <v>77.217487265592567</v>
+        <v>102.0656052050322</v>
       </c>
       <c r="D7">
-        <v>2.1543974067327647</v>
+        <v>3.9079937578899728</v>
       </c>
       <c r="E7">
-        <v>7.7759221180241278</v>
+        <v>9.6566408943088504</v>
       </c>
       <c r="F7">
-        <v>5.3286743864396142E-2</v>
+        <v>5.0378996236497636E-2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -538,22 +538,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.7124097544357344</v>
+        <v>0.79286094851558842</v>
       </c>
       <c r="B8">
-        <v>26.531526115750584</v>
+        <v>43.984472380066137</v>
       </c>
       <c r="C8">
-        <v>84.972591222971204</v>
+        <v>106.43741389796993</v>
       </c>
       <c r="D8">
-        <v>2.4035184575544353</v>
+        <v>4.3592413787560753</v>
       </c>
       <c r="E8">
-        <v>7.6977551347638142</v>
+        <v>10.54886767545033</v>
       </c>
       <c r="F8">
-        <v>4.8760901474241836E-2</v>
+        <v>5.0781335786292382E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -561,22 +561,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.76116644544777656</v>
+        <v>0.7351571473330395</v>
       </c>
       <c r="B9">
-        <v>33.840921257488233</v>
+        <v>22.6591087674955</v>
       </c>
       <c r="C9">
-        <v>93.270081836865131</v>
+        <v>83.158561366880491</v>
       </c>
       <c r="D9">
-        <v>3.3023590472270858</v>
+        <v>2.1402411175032654</v>
       </c>
       <c r="E9">
-        <v>9.1017409439297197</v>
+        <v>7.854650160165507</v>
       </c>
       <c r="F9">
-        <v>5.1231849013322082E-2</v>
+        <v>4.860587101183194E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.73471741020786308</v>
+        <v>0.73178906250273013</v>
       </c>
       <c r="B10">
-        <v>17.118953104592393</v>
+        <v>23.438303708162465</v>
       </c>
       <c r="C10">
-        <v>78.842846856186199</v>
+        <v>81.226481543409804</v>
       </c>
       <c r="D10">
-        <v>1.5610451741922733</v>
+        <v>2.4110234411358715</v>
       </c>
       <c r="E10">
-        <v>7.1895310917939703</v>
+        <v>8.3555087211345302</v>
       </c>
       <c r="F10">
-        <v>4.7613160191397885E-2</v>
+        <v>5.0653202084969193E-2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -607,22 +607,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.7182709137482286</v>
+        <v>0.69827885905188802</v>
       </c>
       <c r="B11">
-        <v>21.841108951797388</v>
+        <v>14.571470001149773</v>
       </c>
       <c r="C11">
-        <v>81.454907550291452</v>
+        <v>71.563958389054505</v>
       </c>
       <c r="D11">
-        <v>1.9943249083091543</v>
+        <v>1.3229771685826492</v>
       </c>
       <c r="E11">
-        <v>7.4376970230807453</v>
+        <v>6.4974558527483675</v>
       </c>
       <c r="F11">
-        <v>4.8194943495271536E-2</v>
+        <v>4.9008483665372429E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -630,22 +630,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.72608396577094769</v>
+        <v>0.80654045445853706</v>
       </c>
       <c r="B12">
-        <v>21.144295808337539</v>
+        <v>37.511948245480404</v>
       </c>
       <c r="C12">
-        <v>81.580807158617148</v>
+        <v>100.04971296659261</v>
       </c>
       <c r="D12">
-        <v>1.9134164519855148</v>
+        <v>3.6719781657813355</v>
       </c>
       <c r="E12">
-        <v>7.3825139412778986</v>
+        <v>9.7936891760955493</v>
       </c>
       <c r="F12">
-        <v>4.8055981362834781E-2</v>
+        <v>5.15874181340066E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.7897582271811836</v>
+        <v>0.79671778637883284</v>
       </c>
       <c r="B13">
-        <v>38.334760497745854</v>
+        <v>52.116773360819529</v>
       </c>
       <c r="C13">
-        <v>101.85109802923157</v>
+        <v>115.87680909780993</v>
       </c>
       <c r="D13">
-        <v>3.6790420627405838</v>
+        <v>4.9249553404520503</v>
       </c>
       <c r="E13">
-        <v>9.7747962663779084</v>
+        <v>10.950181160482874</v>
       </c>
       <c r="F13">
-        <v>4.9735753532054283E-2</v>
+        <v>4.9982267241209681E-2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -676,45 +676,45 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.76623084351312531</v>
+        <v>0.78412160133158437</v>
       </c>
       <c r="B14">
-        <v>45.132442543072258</v>
+        <v>50.65671452084122</v>
       </c>
       <c r="C14">
-        <v>106.29180377747321</v>
+        <v>113.78986627006056</v>
       </c>
       <c r="D14">
-        <v>4.3179284147913979</v>
+        <v>4.7459861152292264</v>
       </c>
       <c r="E14">
-        <v>10.169190363499011</v>
+        <v>10.660879421015592</v>
       </c>
       <c r="F14">
-        <v>5.01137244109826E-2</v>
+        <v>4.9640998283830819E-2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.78443795229316604</v>
+        <v>0.76192846336336983</v>
       </c>
       <c r="B15">
-        <v>42.334880091838627</v>
+        <v>27.393996266626228</v>
       </c>
       <c r="C15">
-        <v>106.77473617237638</v>
+        <v>91.020825306734537</v>
       </c>
       <c r="D15">
-        <v>3.9238001864381609</v>
+        <v>2.61446461233629</v>
       </c>
       <c r="E15">
-        <v>9.8963958039135687</v>
+        <v>8.6869664591441058</v>
       </c>
       <c r="F15">
-        <v>4.869271907204565E-2</v>
+        <v>4.7899823068855103E-2</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -722,22 +722,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.75428458365981021</v>
+        <v>0.70104583409797439</v>
       </c>
       <c r="B16">
-        <v>29.466112987798361</v>
+        <v>18.753037141486992</v>
       </c>
       <c r="C16">
-        <v>91.810068453130242</v>
+        <v>76.376701176487401</v>
       </c>
       <c r="D16">
-        <v>2.6634306109495354</v>
+        <v>1.7229648339416268</v>
       </c>
       <c r="E16">
-        <v>8.2986767481919586</v>
+        <v>7.0172297567966799</v>
       </c>
       <c r="F16">
-        <v>4.8395041862831584E-2</v>
+        <v>4.8663745760572336E-2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -745,22 +745,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.68927508402837445</v>
+        <v>0.73557101995151386</v>
       </c>
       <c r="B17">
-        <v>14.529772090577717</v>
+        <v>28.825420365703611</v>
       </c>
       <c r="C17">
-        <v>73.398737286632567</v>
+        <v>88.749550025321611</v>
       </c>
       <c r="D17">
-        <v>1.3128037096660643</v>
+        <v>2.7780416221528892</v>
       </c>
       <c r="E17">
-        <v>6.6317719227807119</v>
+        <v>8.5532124350570697</v>
       </c>
       <c r="F17">
-        <v>4.6834530332431873E-2</v>
+        <v>4.9100155421845343E-2</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.74428481107014943</v>
+        <v>0.7928234566861585</v>
       </c>
       <c r="B18">
-        <v>44.822171378530491</v>
+        <v>58.670584190898616</v>
       </c>
       <c r="C18">
-        <v>104.10980155814688</v>
+        <v>119.43614059662517</v>
       </c>
       <c r="D18">
-        <v>4.2900311445943355</v>
+        <v>5.9655218277420454</v>
       </c>
       <c r="E18">
-        <v>9.9645839861279182</v>
+        <v>12.144056746258936</v>
       </c>
       <c r="F18">
-        <v>5.0215183761960581E-2</v>
+        <v>5.218900334870915E-2</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.72075540775687053</v>
+        <v>0.76024188566520812</v>
       </c>
       <c r="B19">
-        <v>29.122984683726866</v>
+        <v>34.25184971621772</v>
       </c>
       <c r="C19">
-        <v>89.419379015451838</v>
+        <v>95.31951903630933</v>
       </c>
       <c r="D19">
-        <v>2.6475090669811761</v>
+        <v>3.1128770981099101</v>
       </c>
       <c r="E19">
-        <v>8.1289270065618702</v>
+        <v>8.6628298988036132</v>
       </c>
       <c r="F19">
-        <v>4.7814163068629414E-2</v>
+        <v>4.9796685816210357E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -814,22 +814,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.77371536406549446</v>
+        <v>0.72825934296589101</v>
       </c>
       <c r="B20">
-        <v>31.036846061225145</v>
+        <v>21.262996809988955</v>
       </c>
       <c r="C20">
-        <v>89.72607828437593</v>
+        <v>80.118412429996908</v>
       </c>
       <c r="D20">
-        <v>3.1685499011518354</v>
+        <v>2.0460217182193516</v>
       </c>
       <c r="E20">
-        <v>9.1601303791587227</v>
+        <v>7.709355991814876</v>
       </c>
       <c r="F20">
-        <v>5.2733037033003929E-2</v>
+        <v>4.9494805892990247E-2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -837,22 +837,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.71837123205997111</v>
+        <v>0.7502193536268662</v>
       </c>
       <c r="B21">
-        <v>22.104573175951867</v>
+        <v>20.531421019167819</v>
       </c>
       <c r="C21">
-        <v>81.849646682165101</v>
+        <v>80.995119885191158</v>
       </c>
       <c r="D21">
-        <v>2.0413998898890346</v>
+        <v>1.9622396276093177</v>
       </c>
       <c r="E21">
-        <v>7.5589724530943405</v>
+        <v>7.7409076426474925</v>
       </c>
       <c r="F21">
-        <v>4.809576354343361E-2</v>
+        <v>4.9631059144378042E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -860,45 +860,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.75246816978872699</v>
+        <v>0.80480963615117029</v>
       </c>
       <c r="B22">
-        <v>23.903337515031634</v>
+        <v>63.975887928645911</v>
       </c>
       <c r="C22">
-        <v>82.385943183325722</v>
+        <v>126.63429992097939</v>
       </c>
       <c r="D22">
-        <v>2.4164520415765973</v>
+        <v>6.3272629768731594</v>
       </c>
       <c r="E22">
-        <v>8.3286143818773564</v>
+        <v>12.52422660215235</v>
       </c>
       <c r="F22">
-        <v>5.1466117912504071E-2</v>
+        <v>5.1297937092102786E-2</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.74840501476828436</v>
+        <v>0.75072623529692206</v>
       </c>
       <c r="B23">
-        <v>25.684020252831573</v>
+        <v>30.619951550382734</v>
       </c>
       <c r="C23">
-        <v>86.132684084676342</v>
+        <v>92.480029325876799</v>
       </c>
       <c r="D23">
-        <v>2.3738431718852806</v>
+        <v>2.8251622688805966</v>
       </c>
       <c r="E23">
-        <v>7.9608052780607554</v>
+        <v>8.5327074749461023</v>
       </c>
       <c r="F23">
-        <v>4.9523345419193079E-2</v>
+        <v>4.8543504133408751E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -906,22 +906,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.78512145121911814</v>
+        <v>0.73317313711771437</v>
       </c>
       <c r="B24">
-        <v>67.932563748457099</v>
+        <v>28.120356765230181</v>
       </c>
       <c r="C24">
-        <v>129.81045795736864</v>
+        <v>85.821224879911426</v>
       </c>
       <c r="D24">
-        <v>6.8306523286151464</v>
+        <v>2.7361550632341469</v>
       </c>
       <c r="E24">
-        <v>13.052504689921074</v>
+        <v>8.3505405336276795</v>
       </c>
       <c r="F24">
-        <v>5.0752952165333681E-2</v>
+        <v>5.0825795941962036E-2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -929,22 +929,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.70829576243072567</v>
+        <v>0.74033483720569571</v>
       </c>
       <c r="B25">
-        <v>23.27517647307273</v>
+        <v>27.992820570891716</v>
       </c>
       <c r="C25">
-        <v>79.557375983201965</v>
+        <v>90.757660305847139</v>
       </c>
       <c r="D25">
-        <v>2.2535003108914111</v>
+        <v>2.3959732958373539</v>
       </c>
       <c r="E25">
-        <v>7.7027373656764411</v>
+        <v>7.7681679105822434</v>
       </c>
       <c r="F25">
-        <v>5.033888288628463E-2</v>
+        <v>4.7181501001643353E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -952,22 +952,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.73317089150384795</v>
+        <v>0.74199006307741133</v>
       </c>
       <c r="B26">
-        <v>30.301062757944553</v>
+        <v>23.153052849315742</v>
       </c>
       <c r="C26">
-        <v>91.753922596799143</v>
+        <v>80.989187494151892</v>
       </c>
       <c r="D26">
-        <v>2.7810705478027935</v>
+        <v>2.2568076229894207</v>
       </c>
       <c r="E26">
-        <v>8.4212931347575228</v>
+        <v>7.8942944114569826</v>
       </c>
       <c r="F26">
-        <v>4.7722491251109361E-2</v>
+        <v>5.1316711784691195E-2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -975,22 +975,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.76849129413513007</v>
+        <v>0.72642569823373326</v>
       </c>
       <c r="B27">
-        <v>35.482400877790177</v>
+        <v>23.711688093243062</v>
       </c>
       <c r="C27">
-        <v>94.438323146824075</v>
+        <v>80.874937332107365</v>
       </c>
       <c r="D27">
-        <v>3.6357071393312732</v>
+        <v>2.2334643151414935</v>
       </c>
       <c r="E27">
-        <v>9.6766305886109976</v>
+        <v>7.617816403887308</v>
       </c>
       <c r="F27">
-        <v>5.2140057490968873E-2</v>
+        <v>5.0831659005125103E-2</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -998,22 +998,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.80870337773239687</v>
+        <v>0.72989565711022375</v>
       </c>
       <c r="B28">
-        <v>41.057397686191464</v>
+        <v>31.229219065405395</v>
       </c>
       <c r="C28">
-        <v>103.74755059262465</v>
+        <v>90.154100241326077</v>
       </c>
       <c r="D28">
-        <v>3.9973386802895123</v>
+        <v>2.9994509995978618</v>
       </c>
       <c r="E28">
-        <v>10.10083737257097</v>
+        <v>8.6589679210468926</v>
       </c>
       <c r="F28">
-        <v>5.1600025856654685E-2</v>
+        <v>4.9547535271636106E-2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1021,22 +1021,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.69174273680283138</v>
+        <v>0.7205243171283372</v>
       </c>
       <c r="B29">
-        <v>16.005759317522539</v>
+        <v>26.761998632843017</v>
       </c>
       <c r="C29">
-        <v>70.871417713119172</v>
+        <v>85.106924652350969</v>
       </c>
       <c r="D29">
-        <v>1.5238530148829945</v>
+        <v>2.4536966927702992</v>
       </c>
       <c r="E29">
-        <v>6.7474226875907553</v>
+        <v>7.8031010469841089</v>
       </c>
       <c r="F29">
-        <v>5.0431745979619885E-2</v>
+        <v>4.939756488078683E-2</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1044,22 +1044,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.75995023226405178</v>
+        <v>0.73818210165227494</v>
       </c>
       <c r="B30">
-        <v>59.049639249520496</v>
+        <v>25.488168976883056</v>
       </c>
       <c r="C30">
-        <v>122.09727193171781</v>
+        <v>85.067315137398651</v>
       </c>
       <c r="D30">
-        <v>5.3310251724001674</v>
+        <v>2.4102739037101562</v>
       </c>
       <c r="E30">
-        <v>11.022990799298773</v>
+        <v>8.0443412753705648</v>
       </c>
       <c r="F30">
-        <v>4.8214354762198083E-2</v>
+        <v>4.9559763724273308E-2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1067,22 +1067,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.70302564835426806</v>
+        <v>0.79692390110156541</v>
       </c>
       <c r="B31">
-        <v>35.800983530790084</v>
+        <v>36.142937208373255</v>
       </c>
       <c r="C31">
-        <v>94.043247532411343</v>
+        <v>98.094958238876245</v>
       </c>
       <c r="D31">
-        <v>3.2934147052357745</v>
+        <v>3.6120332956001793</v>
       </c>
       <c r="E31">
-        <v>8.6512543457080913</v>
+        <v>9.8033608405031369</v>
       </c>
       <c r="F31">
-        <v>4.8282851664880312E-2</v>
+        <v>5.1454263337700638E-2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1090,22 +1090,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.73697173693079077</v>
+        <v>0.74733841821721603</v>
       </c>
       <c r="B32">
-        <v>14.616800831428845</v>
+        <v>26.676791765410751</v>
       </c>
       <c r="C32">
-        <v>74.823896271408643</v>
+        <v>84.954930199563378</v>
       </c>
       <c r="D32">
-        <v>1.3350199762630786</v>
+        <v>2.704190547275549</v>
       </c>
       <c r="E32">
-        <v>6.8340122695919829</v>
+        <v>8.6117671573981358</v>
       </c>
       <c r="F32">
-        <v>4.896245079056994E-2</v>
+        <v>5.1294597823272593E-2</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1113,45 +1113,45 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.74080369829455484</v>
+        <v>0.77773046122510681</v>
       </c>
       <c r="B33">
-        <v>28.203225514294367</v>
+        <v>42.837514819674908</v>
       </c>
       <c r="C33">
-        <v>87.121422815451794</v>
+        <v>104.65942172353218</v>
       </c>
       <c r="D33">
-        <v>2.7230397794593397</v>
+        <v>4.0721613760752042</v>
       </c>
       <c r="E33">
-        <v>8.4116300757632416</v>
+        <v>9.9489911256287087</v>
       </c>
       <c r="F33">
-        <v>5.0293711092888514E-2</v>
+        <v>5.0371285407906231E-2</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.67825690230545066</v>
+        <v>0.74262107298621149</v>
       </c>
       <c r="B34">
-        <v>14.117731888125762</v>
+        <v>25.320916975069949</v>
       </c>
       <c r="C34">
-        <v>71.5267891105091</v>
+        <v>84.589393169859306</v>
       </c>
       <c r="D34">
-        <v>1.2288296245995218</v>
+        <v>2.4696981979240977</v>
       </c>
       <c r="E34">
-        <v>6.2258044073922907</v>
+        <v>8.2505018313823282</v>
       </c>
       <c r="F34">
-        <v>4.7257832482990425E-2</v>
+        <v>5.0119127108687156E-2</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.76893166107227473</v>
+        <v>0.7524708848883539</v>
       </c>
       <c r="B35">
-        <v>36.692165145188426</v>
+        <v>36.474787087381586</v>
       </c>
       <c r="C35">
-        <v>98.337834975635346</v>
+        <v>99.364240947986715</v>
       </c>
       <c r="D35">
-        <v>3.5188959688641748</v>
+        <v>3.4189188643448234</v>
       </c>
       <c r="E35">
-        <v>9.430912831481443</v>
+        <v>9.3137837104990613</v>
       </c>
       <c r="F35">
-        <v>4.9893636531953008E-2</v>
+        <v>4.7859909011530692E-2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1182,22 +1182,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.77892018094590776</v>
+        <v>0.75972620367344479</v>
       </c>
       <c r="B36">
-        <v>36.089696016004069</v>
+        <v>35.181560079569557</v>
       </c>
       <c r="C36">
-        <v>99.649827245766019</v>
+        <v>97.410217941024442</v>
       </c>
       <c r="D36">
-        <v>3.2904999884788659</v>
+        <v>3.3500189364358568</v>
       </c>
       <c r="E36">
-        <v>9.0856336184906343</v>
+        <v>9.27548619125273</v>
       </c>
       <c r="F36">
-        <v>4.9019419304230774E-2</v>
+        <v>4.8834490717436979E-2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1205,22 +1205,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.72975582072671119</v>
+        <v>0.72344074205189635</v>
       </c>
       <c r="B37">
-        <v>21.652863610246367</v>
+        <v>25.987797533192268</v>
       </c>
       <c r="C37">
-        <v>79.864021840824151</v>
+        <v>84.428807806435202</v>
       </c>
       <c r="D37">
-        <v>2.101910954692173</v>
+        <v>2.4664709119247328</v>
       </c>
       <c r="E37">
-        <v>7.7526495069948513</v>
+        <v>8.0130375926272848</v>
       </c>
       <c r="F37">
-        <v>5.0145425235217318E-2</v>
+        <v>4.9515964126521816E-2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1228,22 +1228,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.75362869827064827</v>
+        <v>0.76123152292409979</v>
       </c>
       <c r="B38">
-        <v>22.39930239587985</v>
+        <v>22.36100351645571</v>
       </c>
       <c r="C38">
-        <v>81.502250490768674</v>
+        <v>84.103028979034619</v>
       </c>
       <c r="D38">
-        <v>2.1817695705813986</v>
+        <v>2.0594841627780669</v>
       </c>
       <c r="E38">
-        <v>7.938601252482318</v>
+        <v>7.7460233882848906</v>
       </c>
       <c r="F38">
-        <v>5.1004474231011968E-2</v>
+        <v>4.9316912894959833E-2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.74728187834112525</v>
+        <v>0.71790502680714896</v>
       </c>
       <c r="B39">
-        <v>26.185776632839765</v>
+        <v>17.099286662737647</v>
       </c>
       <c r="C39">
-        <v>88.316801764432341</v>
+        <v>75.344367587556036</v>
       </c>
       <c r="D39">
-        <v>2.4398092904134261</v>
+        <v>1.5353063871802504</v>
       </c>
       <c r="E39">
-        <v>8.2287478605554405</v>
+        <v>6.7650008492641538</v>
       </c>
       <c r="F39">
-        <v>4.8110062678566448E-2</v>
+        <v>4.9302362734034641E-2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.72597075691262036</v>
+        <v>0.75385335700755818</v>
       </c>
       <c r="B40">
-        <v>25.607106260359988</v>
+        <v>32.252504017398067</v>
       </c>
       <c r="C40">
-        <v>86.510422908568941</v>
+        <v>92.400036473014282</v>
       </c>
       <c r="D40">
-        <v>2.2636347455168861</v>
+        <v>3.0531156293296875</v>
       </c>
       <c r="E40">
-        <v>7.6474083855519437</v>
+        <v>8.7468556039622438</v>
       </c>
       <c r="F40">
-        <v>4.7680211644695103E-2</v>
+        <v>5.0133618203795041E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.78756209941745792</v>
+        <v>0.79961252803777283</v>
       </c>
       <c r="B41">
-        <v>47.285562079084926</v>
+        <v>38.774120890889023</v>
       </c>
       <c r="C41">
-        <v>108.97927288273222</v>
+        <v>100.26253678358034</v>
       </c>
       <c r="D41">
-        <v>4.4912473518988696</v>
+        <v>4.0384081589143692</v>
       </c>
       <c r="E41">
-        <v>10.351000373598758</v>
+        <v>10.442559038789318</v>
       </c>
       <c r="F41">
-        <v>5.1062715415127649E-2</v>
+        <v>5.2017116813238028E-2</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.74324551701467523</v>
+        <v>0.70090370670227387</v>
       </c>
       <c r="B42">
-        <v>30.144729738764905</v>
+        <v>14.452070638415071</v>
       </c>
       <c r="C42">
-        <v>90.298558116628044</v>
+        <v>74.387331092204803</v>
       </c>
       <c r="D42">
-        <v>2.8235280603010522</v>
+        <v>1.3076060437878141</v>
       </c>
       <c r="E42">
-        <v>8.4578801951956368</v>
+        <v>6.7304766321069893</v>
       </c>
       <c r="F42">
-        <v>4.942299016088518E-2</v>
+        <v>4.677738622610466E-2</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1343,22 +1343,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.75085873834723516</v>
+        <v>0.7331182306971803</v>
       </c>
       <c r="B43">
-        <v>23.101035155200918</v>
+        <v>23.219206066322009</v>
       </c>
       <c r="C43">
-        <v>85.628158597064427</v>
+        <v>80.674818719555304</v>
       </c>
       <c r="D43">
-        <v>2.123798611917957</v>
+        <v>2.2109003692104263</v>
       </c>
       <c r="E43">
-        <v>7.8722430898770011</v>
+        <v>7.681743552453101</v>
       </c>
       <c r="F43">
-        <v>4.8034113646399944E-2</v>
+        <v>5.103892878990459E-2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.69652680555266411</v>
+        <v>0.71449826704650299</v>
       </c>
       <c r="B44">
-        <v>18.509774081246071</v>
+        <v>16.059360104190663</v>
       </c>
       <c r="C44">
-        <v>76.117361080408671</v>
+        <v>74.591739226579307</v>
       </c>
       <c r="D44">
-        <v>1.684815743906146</v>
+        <v>1.5203561188196086</v>
       </c>
       <c r="E44">
-        <v>6.9284329333223358</v>
+        <v>7.0616765805589825</v>
       </c>
       <c r="F44">
-        <v>4.8363546667058908E-2</v>
+        <v>4.8827556833288342E-2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.68079634092648456</v>
+        <v>0.69510067443548618</v>
       </c>
       <c r="B45">
-        <v>19.185857743177941</v>
+        <v>19.498885496116152</v>
       </c>
       <c r="C45">
-        <v>76.674896950308039</v>
+        <v>78.530741167872378</v>
       </c>
       <c r="D45">
-        <v>1.7174820221274838</v>
+        <v>1.7433154491450038</v>
       </c>
       <c r="E45">
-        <v>6.8637930512883472</v>
+        <v>7.0211117624147494</v>
       </c>
       <c r="F45">
-        <v>4.7368775009344603E-2</v>
+        <v>4.7100038887515773E-2</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1412,22 +1412,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.74750598891326381</v>
+        <v>0.70878555175529634</v>
       </c>
       <c r="B46">
-        <v>26.402560439030275</v>
+        <v>16.210467825683573</v>
       </c>
       <c r="C46">
-        <v>87.422550878850672</v>
+        <v>75.269849689135469</v>
       </c>
       <c r="D46">
-        <v>2.4420676996209787</v>
+        <v>1.4668985279090143</v>
       </c>
       <c r="E46">
-        <v>8.0860259069462455</v>
+        <v>6.8112304279083711</v>
       </c>
       <c r="F46">
-        <v>4.9000728025382072E-2</v>
+        <v>4.8004942103460721E-2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1435,22 +1435,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.72847826095480628</v>
+        <v>0.79066445297551557</v>
       </c>
       <c r="B47">
-        <v>27.187103286544314</v>
+        <v>47.229100610078603</v>
       </c>
       <c r="C47">
-        <v>86.004719426431009</v>
+        <v>110.33070088650234</v>
       </c>
       <c r="D47">
-        <v>2.563032001634693</v>
+        <v>4.4959022302176415</v>
       </c>
       <c r="E47">
-        <v>8.1079931855283096</v>
+        <v>10.502762868011258</v>
       </c>
       <c r="F47">
-        <v>4.9541501935220014E-2</v>
+        <v>5.0120088841609206E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1458,22 +1458,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.74940765897339068</v>
+        <v>0.74676699124208867</v>
       </c>
       <c r="B48">
-        <v>33.098186114582447</v>
+        <v>20.870398936810528</v>
       </c>
       <c r="C48">
-        <v>94.548515802298027</v>
+        <v>81.142924043981424</v>
       </c>
       <c r="D48">
-        <v>3.1850419368704679</v>
+        <v>1.9503379322940717</v>
       </c>
       <c r="E48">
-        <v>9.0984136368277362</v>
+        <v>7.5828029535701242</v>
       </c>
       <c r="F48">
-        <v>4.8781359695337909E-2</v>
+        <v>4.9559363236516746E-2</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.75308259234008956</v>
+        <v>0.73178664242436398</v>
       </c>
       <c r="B49">
-        <v>25.901623156554074</v>
+        <v>22.996608264835885</v>
       </c>
       <c r="C49">
-        <v>86.665038298204095</v>
+        <v>83.258881538328524</v>
       </c>
       <c r="D49">
-        <v>2.498066818516973</v>
+        <v>2.1153984596435915</v>
       </c>
       <c r="E49">
-        <v>8.3583586707949244</v>
+        <v>7.658768968428368</v>
       </c>
       <c r="F49">
-        <v>4.9574737732204464E-2</v>
+        <v>4.8573450862249665E-2</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1504,48 +1504,48 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.7439864332500169</v>
+        <v>0.76452784188652934</v>
       </c>
       <c r="B50">
-        <v>54.161310585947255</v>
+        <v>29.676992656078578</v>
       </c>
       <c r="C50">
-        <v>114.29310317210073</v>
+        <v>92.124803085423608</v>
       </c>
       <c r="D50">
-        <v>4.9767545812259604</v>
+        <v>2.8750981894078502</v>
       </c>
       <c r="E50">
-        <v>10.502122615952121</v>
+        <v>8.9250234220145845</v>
       </c>
       <c r="F50">
-        <v>4.9517948041710939E-2</v>
+        <v>4.897067401596316E-2</v>
       </c>
       <c r="G50">
-        <v>0.996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.73856936029296927</v>
+        <v>0.7101682745462996</v>
       </c>
       <c r="B51">
-        <v>51.127168367224051</v>
+        <v>25.080203050043167</v>
       </c>
       <c r="C51">
-        <v>111.01495339632821</v>
+        <v>84.960835410386366</v>
       </c>
       <c r="D51">
-        <v>4.8567673746427724</v>
+        <v>2.297203936911361</v>
       </c>
       <c r="E51">
-        <v>10.545739593480427</v>
+        <v>7.7819292450936439</v>
       </c>
       <c r="F51">
-        <v>4.9426756722029855E-2</v>
+        <v>4.7438929520498468E-2</v>
       </c>
       <c r="G51">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pre_model.xlsx
+++ b/pre_model.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD5DDE9-B259-4C45-B4F5-3BC6C5F69DA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FDC9E-9065-41FC-90AA-0E06A366C57E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,48 +397,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.75683836906833857</v>
+        <v>0.72102845192546416</v>
       </c>
       <c r="B2">
-        <v>43.502366539582553</v>
+        <v>19.925447368633652</v>
       </c>
       <c r="C2">
-        <v>104.46567133372061</v>
+        <v>78.78642916853498</v>
       </c>
       <c r="D2">
-        <v>4.1278001958744452</v>
+        <v>1.9123586131836112</v>
       </c>
       <c r="E2">
-        <v>9.9124128845066117</v>
+        <v>7.5615821133134302</v>
       </c>
       <c r="F2">
-        <v>4.9658618188370529E-2</v>
+        <v>4.8998737695311281E-2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>247</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.7071978518102997</v>
+        <v>0.76756485980572831</v>
       </c>
       <c r="B3">
-        <v>22.400869468529635</v>
+        <v>31.821134969977862</v>
       </c>
       <c r="C3">
-        <v>81.500491960158527</v>
+        <v>91.772124990630616</v>
       </c>
       <c r="D3">
-        <v>2.0023202069739723</v>
+        <v>3.1395476106814009</v>
       </c>
       <c r="E3">
-        <v>7.2849887438256102</v>
+        <v>9.0544525207326281</v>
       </c>
       <c r="F3">
-        <v>4.7864796558419312E-2</v>
+        <v>5.1212822976988981E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -446,22 +446,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.72158717288752505</v>
+        <v>0.72645559664290404</v>
       </c>
       <c r="B4">
-        <v>18.209266718083626</v>
+        <v>20.96043257851813</v>
       </c>
       <c r="C4">
-        <v>75.880683179226253</v>
+        <v>83.765807408223637</v>
       </c>
       <c r="D4">
-        <v>1.7522900014331257</v>
+        <v>1.8277733829037837</v>
       </c>
       <c r="E4">
-        <v>7.3020492530226599</v>
+        <v>7.3044729685163778</v>
       </c>
       <c r="F4">
-        <v>5.0048167162581161E-2</v>
+        <v>4.6267097273929872E-2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -469,22 +469,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.75564680726471778</v>
+        <v>0.77979518407669635</v>
       </c>
       <c r="B5">
-        <v>32.964173715700589</v>
+        <v>27.495368745168744</v>
       </c>
       <c r="C5">
-        <v>94.791406573140435</v>
+        <v>86.857975329340292</v>
       </c>
       <c r="D5">
-        <v>3.0845602497576481</v>
+        <v>2.6799269425094776</v>
       </c>
       <c r="E5">
-        <v>8.8699267045441452</v>
+        <v>8.4658994907214513</v>
       </c>
       <c r="F5">
-        <v>4.8887635583308393E-2</v>
+        <v>5.2544537980892619E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -492,22 +492,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.72904979140909187</v>
+        <v>0.72494444715797779</v>
       </c>
       <c r="B6">
-        <v>23.921406667756006</v>
+        <v>22.145361388628022</v>
       </c>
       <c r="C6">
-        <v>82.837396464635617</v>
+        <v>79.831637298212556</v>
       </c>
       <c r="D6">
-        <v>2.3017533998691451</v>
+        <v>2.1278933595644958</v>
       </c>
       <c r="E6">
-        <v>7.9707377411793994</v>
+        <v>7.6708258632103554</v>
       </c>
       <c r="F6">
-        <v>4.9497584198964426E-2</v>
+        <v>5.0268070574999844E-2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -515,22 +515,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.76525910270645014</v>
+        <v>0.74462529661072963</v>
       </c>
       <c r="B7">
-        <v>41.305434508971288</v>
+        <v>22.669487294486753</v>
       </c>
       <c r="C7">
-        <v>102.0656052050322</v>
+        <v>82.183283317074981</v>
       </c>
       <c r="D7">
-        <v>3.9079937578899728</v>
+        <v>2.1892826401357648</v>
       </c>
       <c r="E7">
-        <v>9.6566408943088504</v>
+        <v>7.9367668592658829</v>
       </c>
       <c r="F7">
-        <v>5.0378996236497636E-2</v>
+        <v>5.004723922017075E-2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -538,22 +538,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.79286094851558842</v>
+        <v>0.70275319454095686</v>
       </c>
       <c r="B8">
-        <v>43.984472380066137</v>
+        <v>17.134338723695777</v>
       </c>
       <c r="C8">
-        <v>106.43741389796993</v>
+        <v>76.187871520159305</v>
       </c>
       <c r="D8">
-        <v>4.3592413787560753</v>
+        <v>1.5226499387732175</v>
       </c>
       <c r="E8">
-        <v>10.54886767545033</v>
+        <v>6.7704660084139041</v>
       </c>
       <c r="F8">
-        <v>5.0781335786292382E-2</v>
+        <v>4.7601094211457057E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -561,22 +561,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.7351571473330395</v>
+        <v>0.71095025605000539</v>
       </c>
       <c r="B9">
-        <v>22.6591087674955</v>
+        <v>11.850037491512415</v>
       </c>
       <c r="C9">
-        <v>83.158561366880491</v>
+        <v>69.297284320019159</v>
       </c>
       <c r="D9">
-        <v>2.1402411175032654</v>
+        <v>1.0822990723301804</v>
       </c>
       <c r="E9">
-        <v>7.854650160165507</v>
+        <v>6.329126518652493</v>
       </c>
       <c r="F9">
-        <v>4.860587101183194E-2</v>
+        <v>4.9502825308398557E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.73178906250273013</v>
+        <v>0.67834454643964615</v>
       </c>
       <c r="B10">
-        <v>23.438303708162465</v>
+        <v>11.554068355889237</v>
       </c>
       <c r="C10">
-        <v>81.226481543409804</v>
+        <v>68.793258954930081</v>
       </c>
       <c r="D10">
-        <v>2.4110234411358715</v>
+        <v>1.0078263143686221</v>
       </c>
       <c r="E10">
-        <v>8.3555087211345302</v>
+        <v>6.0006271808677916</v>
       </c>
       <c r="F10">
-        <v>5.0653202084969193E-2</v>
+        <v>4.7404202564039329E-2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -607,22 +607,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.69827885905188802</v>
+        <v>0.7553666350172995</v>
       </c>
       <c r="B11">
-        <v>14.571470001149773</v>
+        <v>37.584700953101873</v>
       </c>
       <c r="C11">
-        <v>71.563958389054505</v>
+        <v>94.671406045885774</v>
       </c>
       <c r="D11">
-        <v>1.3229771685826492</v>
+        <v>3.8234769808554332</v>
       </c>
       <c r="E11">
-        <v>6.4974558527483675</v>
+        <v>9.6308852427303506</v>
       </c>
       <c r="F11">
-        <v>4.9008483665372429E-2</v>
+        <v>5.2927674406122491E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -630,22 +630,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.80654045445853706</v>
+        <v>0.77101884284637578</v>
       </c>
       <c r="B12">
-        <v>37.511948245480404</v>
+        <v>36.072520617315931</v>
       </c>
       <c r="C12">
-        <v>100.04971296659261</v>
+        <v>96.858964708091023</v>
       </c>
       <c r="D12">
-        <v>3.6719781657813355</v>
+        <v>3.5126446023608984</v>
       </c>
       <c r="E12">
-        <v>9.7936891760955493</v>
+        <v>9.4318643041767132</v>
       </c>
       <c r="F12">
-        <v>5.15874181340066E-2</v>
+        <v>5.0736235973598241E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.79671778637883284</v>
+        <v>0.73639957072929874</v>
       </c>
       <c r="B13">
-        <v>52.116773360819529</v>
+        <v>25.073529439068874</v>
       </c>
       <c r="C13">
-        <v>115.87680909780993</v>
+        <v>84.569822870682586</v>
       </c>
       <c r="D13">
-        <v>4.9249553404520503</v>
+        <v>2.3602691297725311</v>
       </c>
       <c r="E13">
-        <v>10.950181160482874</v>
+        <v>7.9608873061556373</v>
       </c>
       <c r="F13">
-        <v>4.9982267241209681E-2</v>
+        <v>4.9508937666897346E-2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -676,45 +676,45 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.78412160133158437</v>
+        <v>0.78937253014756359</v>
       </c>
       <c r="B14">
-        <v>50.65671452084122</v>
+        <v>51.509213244081955</v>
       </c>
       <c r="C14">
-        <v>113.78986627006056</v>
+        <v>114.04499948835604</v>
       </c>
       <c r="D14">
-        <v>4.7459861152292264</v>
+        <v>5.026168098879344</v>
       </c>
       <c r="E14">
-        <v>10.660879421015592</v>
+        <v>11.128287585152426</v>
       </c>
       <c r="F14">
-        <v>4.9640998283830819E-2</v>
+        <v>5.0490931836318892E-2</v>
       </c>
       <c r="G14">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.76192846336336983</v>
+        <v>0.7364431688338362</v>
       </c>
       <c r="B15">
-        <v>27.393996266626228</v>
+        <v>22.427106176196755</v>
       </c>
       <c r="C15">
-        <v>91.020825306734537</v>
+        <v>82.342262329196785</v>
       </c>
       <c r="D15">
-        <v>2.61446461233629</v>
+        <v>2.0932746630831751</v>
       </c>
       <c r="E15">
-        <v>8.6869664591441058</v>
+        <v>7.6855645164598716</v>
       </c>
       <c r="F15">
-        <v>4.7899823068855103E-2</v>
+        <v>4.9165734756878285E-2</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -722,22 +722,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.70104583409797439</v>
+        <v>0.75885757121562525</v>
       </c>
       <c r="B16">
-        <v>18.753037141486992</v>
+        <v>24.56939057809128</v>
       </c>
       <c r="C16">
-        <v>76.376701176487401</v>
+        <v>83.465719349562605</v>
       </c>
       <c r="D16">
-        <v>1.7229648339416268</v>
+        <v>2.3685989495668824</v>
       </c>
       <c r="E16">
-        <v>7.0172297567966799</v>
+        <v>8.0464680044813992</v>
       </c>
       <c r="F16">
-        <v>4.8663745760572336E-2</v>
+        <v>5.1538531317300615E-2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -745,22 +745,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.73557101995151386</v>
+        <v>0.75499272534136153</v>
       </c>
       <c r="B17">
-        <v>28.825420365703611</v>
+        <v>26.310087940233412</v>
       </c>
       <c r="C17">
-        <v>88.749550025321611</v>
+        <v>86.372059966978725</v>
       </c>
       <c r="D17">
-        <v>2.7780416221528892</v>
+        <v>2.4743360615626311</v>
       </c>
       <c r="E17">
-        <v>8.5532124350570697</v>
+        <v>8.1228729897529011</v>
       </c>
       <c r="F17">
-        <v>4.9100155421845343E-2</v>
+        <v>5.0280914852756944E-2</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.7928234566861585</v>
+        <v>0.72969388384089662</v>
       </c>
       <c r="B18">
-        <v>58.670584190898616</v>
+        <v>23.829934319242117</v>
       </c>
       <c r="C18">
-        <v>119.43614059662517</v>
+        <v>82.784056247226488</v>
       </c>
       <c r="D18">
-        <v>5.9655218277420454</v>
+        <v>2.2429586296518425</v>
       </c>
       <c r="E18">
-        <v>12.144056746258936</v>
+        <v>7.7919313947654025</v>
       </c>
       <c r="F18">
-        <v>5.218900334870915E-2</v>
+        <v>4.9509269918887523E-2</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.76024188566520812</v>
+        <v>0.83058960807296511</v>
       </c>
       <c r="B19">
-        <v>34.25184971621772</v>
+        <v>62.827359516961351</v>
       </c>
       <c r="C19">
-        <v>95.31951903630933</v>
+        <v>128.83454092556946</v>
       </c>
       <c r="D19">
-        <v>3.1128770981099101</v>
+        <v>6.0864422419630255</v>
       </c>
       <c r="E19">
-        <v>8.6628298988036132</v>
+        <v>12.480931844694295</v>
       </c>
       <c r="F19">
-        <v>4.9796685816210357E-2</v>
+        <v>5.0333287399825073E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -814,22 +814,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.72825934296589101</v>
+        <v>0.76502643539113813</v>
       </c>
       <c r="B20">
-        <v>21.262996809988955</v>
+        <v>25.867746352578401</v>
       </c>
       <c r="C20">
-        <v>80.118412429996908</v>
+        <v>86.314173228145918</v>
       </c>
       <c r="D20">
-        <v>2.0460217182193516</v>
+        <v>2.5262059066610414</v>
       </c>
       <c r="E20">
-        <v>7.709355991814876</v>
+        <v>8.4293146865410016</v>
       </c>
       <c r="F20">
-        <v>4.9494805892990247E-2</v>
+        <v>5.0625089020794385E-2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -837,22 +837,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.7502193536268662</v>
+        <v>0.75971525618793423</v>
       </c>
       <c r="B21">
-        <v>20.531421019167819</v>
+        <v>18.047161336367843</v>
       </c>
       <c r="C21">
-        <v>80.995119885191158</v>
+        <v>80.670616457188416</v>
       </c>
       <c r="D21">
-        <v>1.9622396276093177</v>
+        <v>1.7003483759088034</v>
       </c>
       <c r="E21">
-        <v>7.7409076426474925</v>
+        <v>7.6005388947306143</v>
       </c>
       <c r="F21">
-        <v>4.9631059144378042E-2</v>
+        <v>4.852592401503248E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -860,45 +860,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.80480963615117029</v>
+        <v>0.7540495202562687</v>
       </c>
       <c r="B22">
-        <v>63.975887928645911</v>
+        <v>37.477206340521889</v>
       </c>
       <c r="C22">
-        <v>126.63429992097939</v>
+        <v>98.175738456586188</v>
       </c>
       <c r="D22">
-        <v>6.3272629768731594</v>
+        <v>3.531999222949084</v>
       </c>
       <c r="E22">
-        <v>12.52422660215235</v>
+        <v>9.2524674542293042</v>
       </c>
       <c r="F22">
-        <v>5.1297937092102786E-2</v>
+        <v>4.9691450120369782E-2</v>
       </c>
       <c r="G22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.75072623529692206</v>
+        <v>0.75304018556219432</v>
       </c>
       <c r="B23">
-        <v>30.619951550382734</v>
+        <v>32.351597162537786</v>
       </c>
       <c r="C23">
-        <v>92.480029325876799</v>
+        <v>93.560437346668564</v>
       </c>
       <c r="D23">
-        <v>2.8251622688805966</v>
+        <v>3.0294382270324327</v>
       </c>
       <c r="E23">
-        <v>8.5327074749461023</v>
+        <v>8.7610996147071472</v>
       </c>
       <c r="F23">
-        <v>4.8543504133408751E-2</v>
+        <v>4.9211204348709743E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -906,22 +906,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.73317313711771437</v>
+        <v>0.7662876259813014</v>
       </c>
       <c r="B24">
-        <v>28.120356765230181</v>
+        <v>25.640817030998509</v>
       </c>
       <c r="C24">
-        <v>85.821224879911426</v>
+        <v>84.596139086105495</v>
       </c>
       <c r="D24">
-        <v>2.7361550632341469</v>
+        <v>2.5826067218696007</v>
       </c>
       <c r="E24">
-        <v>8.3505405336276795</v>
+        <v>8.5207330633755429</v>
       </c>
       <c r="F24">
-        <v>5.0825795941962036E-2</v>
+        <v>5.1991073868787145E-2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -929,22 +929,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.74033483720569571</v>
+        <v>0.76266484555467251</v>
       </c>
       <c r="B25">
-        <v>27.992820570891716</v>
+        <v>32.463498915395441</v>
       </c>
       <c r="C25">
-        <v>90.757660305847139</v>
+        <v>93.385883397313279</v>
       </c>
       <c r="D25">
-        <v>2.3959732958373539</v>
+        <v>3.1662609654673677</v>
       </c>
       <c r="E25">
-        <v>7.7681679105822434</v>
+        <v>9.1082011245058805</v>
       </c>
       <c r="F25">
-        <v>4.7181501001643353E-2</v>
+        <v>5.0074523644493024E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -952,22 +952,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.74199006307741133</v>
+        <v>0.70507579700663747</v>
       </c>
       <c r="B26">
-        <v>23.153052849315742</v>
+        <v>18.349010514343092</v>
       </c>
       <c r="C26">
-        <v>80.989187494151892</v>
+        <v>76.868347652778709</v>
       </c>
       <c r="D26">
-        <v>2.2568076229894207</v>
+        <v>1.6951876851865915</v>
       </c>
       <c r="E26">
-        <v>7.8942944114569826</v>
+        <v>7.1015424085006673</v>
       </c>
       <c r="F26">
-        <v>5.1316711784691195E-2</v>
+        <v>4.8194380284156867E-2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -975,22 +975,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.72642569823373326</v>
+        <v>0.7173972097189073</v>
       </c>
       <c r="B27">
-        <v>23.711688093243062</v>
+        <v>26.071615735206002</v>
       </c>
       <c r="C27">
-        <v>80.874937332107365</v>
+        <v>83.537421179490494</v>
       </c>
       <c r="D27">
-        <v>2.2334643151414935</v>
+        <v>2.515789421828651</v>
       </c>
       <c r="E27">
-        <v>7.617816403887308</v>
+        <v>8.0609718501800511</v>
       </c>
       <c r="F27">
-        <v>5.0831659005125103E-2</v>
+        <v>4.9935588941806622E-2</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -998,22 +998,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.72989565711022375</v>
+        <v>0.73459872911256674</v>
       </c>
       <c r="B28">
-        <v>31.229219065405395</v>
+        <v>32.314903628775944</v>
       </c>
       <c r="C28">
-        <v>90.154100241326077</v>
+        <v>92.714939356203146</v>
       </c>
       <c r="D28">
-        <v>2.9994509995978618</v>
+        <v>3.0516030541294494</v>
       </c>
       <c r="E28">
-        <v>8.6589679210468926</v>
+        <v>8.7553778700076936</v>
       </c>
       <c r="F28">
-        <v>4.9547535271636106E-2</v>
+        <v>4.8648893681299127E-2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1021,22 +1021,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.7205243171283372</v>
+        <v>0.82079605570339176</v>
       </c>
       <c r="B29">
-        <v>26.761998632843017</v>
+        <v>61.759860960662223</v>
       </c>
       <c r="C29">
-        <v>85.106924652350969</v>
+        <v>125.50736113830438</v>
       </c>
       <c r="D29">
-        <v>2.4536966927702992</v>
+        <v>6.212959170280115</v>
       </c>
       <c r="E29">
-        <v>7.8031010469841089</v>
+        <v>12.625872179643668</v>
       </c>
       <c r="F29">
-        <v>4.939756488078683E-2</v>
+        <v>5.150294856526879E-2</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1044,22 +1044,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.73818210165227494</v>
+        <v>0.76248080962139242</v>
       </c>
       <c r="B30">
-        <v>25.488168976883056</v>
+        <v>24.235345048301294</v>
       </c>
       <c r="C30">
-        <v>85.067315137398651</v>
+        <v>85.17545902178054</v>
       </c>
       <c r="D30">
-        <v>2.4102739037101562</v>
+        <v>2.3382758963332013</v>
       </c>
       <c r="E30">
-        <v>8.0443412753705648</v>
+        <v>8.2179033305616382</v>
       </c>
       <c r="F30">
-        <v>4.9559763724273308E-2</v>
+        <v>5.0047875522728394E-2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1067,22 +1067,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.79692390110156541</v>
+        <v>0.74406319883224037</v>
       </c>
       <c r="B31">
-        <v>36.142937208373255</v>
+        <v>23.973007131816114</v>
       </c>
       <c r="C31">
-        <v>98.094958238876245</v>
+        <v>82.939432050006474</v>
       </c>
       <c r="D31">
-        <v>3.6120332956001793</v>
+        <v>2.3166682005763342</v>
       </c>
       <c r="E31">
-        <v>9.8033608405031369</v>
+        <v>8.0149788363056942</v>
       </c>
       <c r="F31">
-        <v>5.1454263337700638E-2</v>
+        <v>5.0473685651761802E-2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1090,22 +1090,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.74733841821721603</v>
+        <v>0.72387175378439583</v>
       </c>
       <c r="B32">
-        <v>26.676791765410751</v>
+        <v>30.471740183764204</v>
       </c>
       <c r="C32">
-        <v>84.954930199563378</v>
+        <v>87.12184390649027</v>
       </c>
       <c r="D32">
-        <v>2.704190547275549</v>
+        <v>2.9405223069662467</v>
       </c>
       <c r="E32">
-        <v>8.6117671573981358</v>
+        <v>8.4072561621395181</v>
       </c>
       <c r="F32">
-        <v>5.1294597823272593E-2</v>
+        <v>5.111176899709758E-2</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1113,45 +1113,45 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.77773046122510681</v>
+        <v>0.70887144785382961</v>
       </c>
       <c r="B33">
-        <v>42.837514819674908</v>
+        <v>27.0529450877771</v>
       </c>
       <c r="C33">
-        <v>104.65942172353218</v>
+        <v>84.29081329775299</v>
       </c>
       <c r="D33">
-        <v>4.0721613760752042</v>
+        <v>2.4487189543242742</v>
       </c>
       <c r="E33">
-        <v>9.9489911256287087</v>
+        <v>7.6296503588761864</v>
       </c>
       <c r="F33">
-        <v>5.0371285407906231E-2</v>
+        <v>4.9538633776740192E-2</v>
       </c>
       <c r="G33">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.74262107298621149</v>
+        <v>0.76714083614160855</v>
       </c>
       <c r="B34">
-        <v>25.320916975069949</v>
+        <v>43.123465656318231</v>
       </c>
       <c r="C34">
-        <v>84.589393169859306</v>
+        <v>105.09435866100054</v>
       </c>
       <c r="D34">
-        <v>2.4696981979240977</v>
+        <v>4.0020093601975226</v>
       </c>
       <c r="E34">
-        <v>8.2505018313823282</v>
+        <v>9.753126300591223</v>
       </c>
       <c r="F34">
-        <v>5.0119127108687156E-2</v>
+        <v>4.9516203426898955E-2</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.7524708848883539</v>
+        <v>0.76197639816728846</v>
       </c>
       <c r="B35">
-        <v>36.474787087381586</v>
+        <v>40.190884251174651</v>
       </c>
       <c r="C35">
-        <v>99.364240947986715</v>
+        <v>102.21746601636926</v>
       </c>
       <c r="D35">
-        <v>3.4189188643448234</v>
+        <v>3.789545489360139</v>
       </c>
       <c r="E35">
-        <v>9.3137837104990613</v>
+        <v>9.6379501096653328</v>
       </c>
       <c r="F35">
-        <v>4.7859909011530692E-2</v>
+        <v>4.9138699988453126E-2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1182,22 +1182,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.75972620367344479</v>
+        <v>0.81717139685314244</v>
       </c>
       <c r="B36">
-        <v>35.181560079569557</v>
+        <v>56.314898397218585</v>
       </c>
       <c r="C36">
-        <v>97.410217941024442</v>
+        <v>119.78600662496503</v>
       </c>
       <c r="D36">
-        <v>3.3500189364358568</v>
+        <v>5.6550070626710749</v>
       </c>
       <c r="E36">
-        <v>9.27548619125273</v>
+        <v>12.028623557044329</v>
       </c>
       <c r="F36">
-        <v>4.8834490717436979E-2</v>
+        <v>5.1498794942793608E-2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1205,22 +1205,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.72344074205189635</v>
+        <v>0.73504610723593844</v>
       </c>
       <c r="B37">
-        <v>25.987797533192268</v>
+        <v>17.528196622839513</v>
       </c>
       <c r="C37">
-        <v>84.428807806435202</v>
+        <v>79.377721182954744</v>
       </c>
       <c r="D37">
-        <v>2.4664709119247328</v>
+        <v>1.616871186700451</v>
       </c>
       <c r="E37">
-        <v>8.0130375926272848</v>
+        <v>7.3221194974175452</v>
       </c>
       <c r="F37">
-        <v>4.9515964126521816E-2</v>
+        <v>4.7537704612199805E-2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1228,22 +1228,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.76123152292409979</v>
+        <v>0.73821022803450664</v>
       </c>
       <c r="B38">
-        <v>22.36100351645571</v>
+        <v>25.334228514302048</v>
       </c>
       <c r="C38">
-        <v>84.103028979034619</v>
+        <v>85.665469648707486</v>
       </c>
       <c r="D38">
-        <v>2.0594841627780669</v>
+        <v>2.3260936116422357</v>
       </c>
       <c r="E38">
-        <v>7.7460233882848906</v>
+        <v>7.8654813418019751</v>
       </c>
       <c r="F38">
-        <v>4.9316912894959833E-2</v>
+        <v>4.8943811806551621E-2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.71790502680714896</v>
+        <v>0.81215994042472839</v>
       </c>
       <c r="B39">
-        <v>17.099286662737647</v>
+        <v>49.102327387611972</v>
       </c>
       <c r="C39">
-        <v>75.344367587556036</v>
+        <v>112.18258400793988</v>
       </c>
       <c r="D39">
-        <v>1.5353063871802504</v>
+        <v>4.7725519826627236</v>
       </c>
       <c r="E39">
-        <v>6.7650008492641538</v>
+        <v>10.903703392731572</v>
       </c>
       <c r="F39">
-        <v>4.9302362734034641E-2</v>
+        <v>5.1500103768633308E-2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.75385335700755818</v>
+        <v>0.76200161905072505</v>
       </c>
       <c r="B40">
-        <v>32.252504017398067</v>
+        <v>29.082836549036742</v>
       </c>
       <c r="C40">
-        <v>92.400036473014282</v>
+        <v>91.207594246401456</v>
       </c>
       <c r="D40">
-        <v>3.0531156293296875</v>
+        <v>2.6050351837399508</v>
       </c>
       <c r="E40">
-        <v>8.7468556039622438</v>
+        <v>8.1697323999169136</v>
       </c>
       <c r="F40">
-        <v>5.0133618203795041E-2</v>
+        <v>4.9062669846553005E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.79961252803777283</v>
+        <v>0.76737608833481286</v>
       </c>
       <c r="B41">
-        <v>38.774120890889023</v>
+        <v>23.400622681964808</v>
       </c>
       <c r="C41">
-        <v>100.26253678358034</v>
+        <v>81.086063032547386</v>
       </c>
       <c r="D41">
-        <v>4.0384081589143692</v>
+        <v>2.3393725933115013</v>
       </c>
       <c r="E41">
-        <v>10.442559038789318</v>
+        <v>8.1062164941477146</v>
       </c>
       <c r="F41">
-        <v>5.2017116813238028E-2</v>
+        <v>5.3211076047688495E-2</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.70090370670227387</v>
+        <v>0.72705080135710498</v>
       </c>
       <c r="B42">
-        <v>14.452070638415071</v>
+        <v>26.795153889598211</v>
       </c>
       <c r="C42">
-        <v>74.387331092204803</v>
+        <v>86.939571866062565</v>
       </c>
       <c r="D42">
-        <v>1.3076060437878141</v>
+        <v>2.4574867835667238</v>
       </c>
       <c r="E42">
-        <v>6.7304766321069893</v>
+        <v>7.9735630446495565</v>
       </c>
       <c r="F42">
-        <v>4.677738622610466E-2</v>
+        <v>4.8353667776225816E-2</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1343,22 +1343,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.7331182306971803</v>
+        <v>0.73268829675308833</v>
       </c>
       <c r="B43">
-        <v>23.219206066322009</v>
+        <v>27.72637355101083</v>
       </c>
       <c r="C43">
-        <v>80.674818719555304</v>
+        <v>88.075695768525662</v>
       </c>
       <c r="D43">
-        <v>2.2109003692104263</v>
+        <v>2.4814041204673583</v>
       </c>
       <c r="E43">
-        <v>7.681743552453101</v>
+        <v>7.8824370591040109</v>
       </c>
       <c r="F43">
-        <v>5.103892878990459E-2</v>
+        <v>4.8563149996103498E-2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.71449826704650299</v>
+        <v>0.73369030302728144</v>
       </c>
       <c r="B44">
-        <v>16.059360104190663</v>
+        <v>25.219421974477754</v>
       </c>
       <c r="C44">
-        <v>74.591739226579307</v>
+        <v>85.9560165583285</v>
       </c>
       <c r="D44">
-        <v>1.5203561188196086</v>
+        <v>2.2586001704357015</v>
       </c>
       <c r="E44">
-        <v>7.0616765805589825</v>
+        <v>7.6980461267148064</v>
       </c>
       <c r="F44">
-        <v>4.8827556833288342E-2</v>
+        <v>4.8319488970648569E-2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.69510067443548618</v>
+        <v>0.71445787955185247</v>
       </c>
       <c r="B45">
-        <v>19.498885496116152</v>
+        <v>23.700453951678714</v>
       </c>
       <c r="C45">
-        <v>78.530741167872378</v>
+        <v>82.833474066949805</v>
       </c>
       <c r="D45">
-        <v>1.7433154491450038</v>
+        <v>2.1189727877464191</v>
       </c>
       <c r="E45">
-        <v>7.0211117624147494</v>
+        <v>7.4058445386837422</v>
       </c>
       <c r="F45">
-        <v>4.7100038887515773E-2</v>
+        <v>4.8328861144526267E-2</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1412,22 +1412,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.70878555175529634</v>
+        <v>0.70887530439572299</v>
       </c>
       <c r="B46">
-        <v>16.210467825683573</v>
+        <v>26.746166638948335</v>
       </c>
       <c r="C46">
-        <v>75.269849689135469</v>
+        <v>83.481245777150832</v>
       </c>
       <c r="D46">
-        <v>1.4668985279090143</v>
+        <v>2.5115164905805707</v>
       </c>
       <c r="E46">
-        <v>6.8112304279083711</v>
+        <v>7.8390495450740971</v>
       </c>
       <c r="F46">
-        <v>4.8004942103460721E-2</v>
+        <v>4.9977919492732489E-2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1435,22 +1435,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.79066445297551557</v>
+        <v>0.76803503687069896</v>
       </c>
       <c r="B47">
-        <v>47.229100610078603</v>
+        <v>37.107188574822821</v>
       </c>
       <c r="C47">
-        <v>110.33070088650234</v>
+        <v>98.860760804905894</v>
       </c>
       <c r="D47">
-        <v>4.4959022302176415</v>
+        <v>3.4439272132550998</v>
       </c>
       <c r="E47">
-        <v>10.502762868011258</v>
+        <v>9.1752912989513433</v>
       </c>
       <c r="F47">
-        <v>5.0120088841609206E-2</v>
+        <v>4.9748379511334796E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1458,22 +1458,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.74676699124208867</v>
+        <v>0.71155580773566918</v>
       </c>
       <c r="B48">
-        <v>20.870398936810528</v>
+        <v>22.126027210953644</v>
       </c>
       <c r="C48">
-        <v>81.142924043981424</v>
+        <v>79.9563794982529</v>
       </c>
       <c r="D48">
-        <v>1.9503379322940717</v>
+        <v>2.0803129478077378</v>
       </c>
       <c r="E48">
-        <v>7.5828029535701242</v>
+        <v>7.5175850569188354</v>
       </c>
       <c r="F48">
-        <v>4.9559363236516746E-2</v>
+        <v>4.9216771442143904E-2</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1481,22 +1481,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.73178664242436398</v>
+        <v>0.73467305606025257</v>
       </c>
       <c r="B49">
-        <v>22.996608264835885</v>
+        <v>30.480430952186502</v>
       </c>
       <c r="C49">
-        <v>83.258881538328524</v>
+        <v>89.975270252411917</v>
       </c>
       <c r="D49">
-        <v>2.1153984596435915</v>
+        <v>2.8012874962441741</v>
       </c>
       <c r="E49">
-        <v>7.658768968428368</v>
+        <v>8.2691284754027219</v>
       </c>
       <c r="F49">
-        <v>4.8573450862249665E-2</v>
+        <v>4.9394069448808156E-2</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1504,45 +1504,45 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.76452784188652934</v>
+        <v>0.7986464585015246</v>
       </c>
       <c r="B50">
-        <v>29.676992656078578</v>
+        <v>76.529420547057853</v>
       </c>
       <c r="C50">
-        <v>92.124803085423608</v>
+        <v>137.04473392535024</v>
       </c>
       <c r="D50">
-        <v>2.8750981894078502</v>
+        <v>8.1248525656682187</v>
       </c>
       <c r="E50">
-        <v>8.9250234220145845</v>
+        <v>14.549545130294433</v>
       </c>
       <c r="F50">
-        <v>4.897067401596316E-2</v>
+        <v>5.2684161921658867E-2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.7101682745462996</v>
+        <v>0.75689321669451393</v>
       </c>
       <c r="B51">
-        <v>25.080203050043167</v>
+        <v>25.910905145288467</v>
       </c>
       <c r="C51">
-        <v>84.960835410386366</v>
+        <v>87.21627272898705</v>
       </c>
       <c r="D51">
-        <v>2.297203936911361</v>
+        <v>2.3979961336537556</v>
       </c>
       <c r="E51">
-        <v>7.7819292450936439</v>
+        <v>8.0716703497265652</v>
       </c>
       <c r="F51">
-        <v>4.7438929520498468E-2</v>
+        <v>4.9385118891010507E-2</v>
       </c>
       <c r="G51">
         <v>1</v>

--- a/pre_model.xlsx
+++ b/pre_model.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FDC9E-9065-41FC-90AA-0E06A366C57E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5AAE9-7F5E-40AC-B718-7855A234BDEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -397,48 +397,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.72102845192546416</v>
+        <v>0.76170829456818068</v>
       </c>
       <c r="B2">
-        <v>19.925447368633652</v>
+        <v>42.589608590316516</v>
       </c>
       <c r="C2">
-        <v>78.78642916853498</v>
+        <v>101.95977921287218</v>
       </c>
       <c r="D2">
-        <v>1.9123586131836112</v>
+        <v>4.2919824717057464</v>
       </c>
       <c r="E2">
-        <v>7.5615821133134302</v>
+        <v>10.275031860709174</v>
       </c>
       <c r="F2">
-        <v>4.8998737695311281E-2</v>
+        <v>5.1319259256350912E-2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>338</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76756485980572831</v>
+        <v>0.7419347221215975</v>
       </c>
       <c r="B3">
-        <v>31.821134969977862</v>
+        <v>23.319095291588699</v>
       </c>
       <c r="C3">
-        <v>91.772124990630616</v>
+        <v>81.737216994157947</v>
       </c>
       <c r="D3">
-        <v>3.1395476106814009</v>
+        <v>2.2173530696243393</v>
       </c>
       <c r="E3">
-        <v>9.0544525207326281</v>
+        <v>7.7721826999832624</v>
       </c>
       <c r="F3">
-        <v>5.1212822976988981E-2</v>
+        <v>5.0801682799669158E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -446,22 +446,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.72645559664290404</v>
+        <v>0.75650266550019374</v>
       </c>
       <c r="B4">
-        <v>20.96043257851813</v>
+        <v>21.74995858865832</v>
       </c>
       <c r="C4">
-        <v>83.765807408223637</v>
+        <v>82.787092522924141</v>
       </c>
       <c r="D4">
-        <v>1.8277733829037837</v>
+        <v>2.0243087646802973</v>
       </c>
       <c r="E4">
-        <v>7.3044729685163778</v>
+        <v>7.7051474058411937</v>
       </c>
       <c r="F4">
-        <v>4.6267097273929872E-2</v>
+        <v>4.9576552287983439E-2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -469,22 +469,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.77979518407669635</v>
+        <v>0.73219889050559883</v>
       </c>
       <c r="B5">
-        <v>27.495368745168744</v>
+        <v>19.777126073344675</v>
       </c>
       <c r="C5">
-        <v>86.857975329340292</v>
+        <v>76.862387532473377</v>
       </c>
       <c r="D5">
-        <v>2.6799269425094776</v>
+        <v>2.004664436879886</v>
       </c>
       <c r="E5">
-        <v>8.4658994907214513</v>
+        <v>7.7909851132364762</v>
       </c>
       <c r="F5">
-        <v>5.2544537980892619E-2</v>
+        <v>5.1305634539649432E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -492,22 +492,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.72494444715797779</v>
+        <v>0.76072617852756585</v>
       </c>
       <c r="B6">
-        <v>22.145361388628022</v>
+        <v>18.790402548832208</v>
       </c>
       <c r="C6">
-        <v>79.831637298212556</v>
+        <v>76.152061494575463</v>
       </c>
       <c r="D6">
-        <v>2.1278933595644958</v>
+        <v>1.9157034960677102</v>
       </c>
       <c r="E6">
-        <v>7.6708258632103554</v>
+        <v>7.7637916515518164</v>
       </c>
       <c r="F6">
-        <v>5.0268070574999844E-2</v>
+        <v>5.3047711137302604E-2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -515,22 +515,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.74462529661072963</v>
+        <v>0.78198658541073418</v>
       </c>
       <c r="B7">
-        <v>22.669487294486753</v>
+        <v>30.949255535627191</v>
       </c>
       <c r="C7">
-        <v>82.183283317074981</v>
+        <v>93.088123334377968</v>
       </c>
       <c r="D7">
-        <v>2.1892826401357648</v>
+        <v>3.1223973191129151</v>
       </c>
       <c r="E7">
-        <v>7.9367668592658829</v>
+        <v>9.3914409800883085</v>
       </c>
       <c r="F7">
-        <v>5.004723922017075E-2</v>
+        <v>5.0338000231568689E-2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -538,22 +538,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.70275319454095686</v>
+        <v>0.72813819247655476</v>
       </c>
       <c r="B8">
-        <v>17.134338723695777</v>
+        <v>19.065649688820343</v>
       </c>
       <c r="C8">
-        <v>76.187871520159305</v>
+        <v>77.85798978400922</v>
       </c>
       <c r="D8">
-        <v>1.5226499387732175</v>
+        <v>1.7844340022047926</v>
       </c>
       <c r="E8">
-        <v>6.7704660084139041</v>
+        <v>7.2870553367696775</v>
       </c>
       <c r="F8">
-        <v>4.7601094211457057E-2</v>
+        <v>4.9539663928848496E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -561,22 +561,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.71095025605000539</v>
+        <v>0.74056742411636278</v>
       </c>
       <c r="B9">
-        <v>11.850037491512415</v>
+        <v>32.138437648088072</v>
       </c>
       <c r="C9">
-        <v>69.297284320019159</v>
+        <v>93.809042064556294</v>
       </c>
       <c r="D9">
-        <v>1.0822990723301804</v>
+        <v>2.960320701653794</v>
       </c>
       <c r="E9">
-        <v>6.329126518652493</v>
+        <v>8.640894503549033</v>
       </c>
       <c r="F9">
-        <v>4.9502825308398557E-2</v>
+        <v>4.8033738674927252E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.67834454643964615</v>
+        <v>0.72428131806739449</v>
       </c>
       <c r="B10">
-        <v>11.554068355889237</v>
+        <v>27.170107183695386</v>
       </c>
       <c r="C10">
-        <v>68.793258954930081</v>
+        <v>88.00804394471335</v>
       </c>
       <c r="D10">
-        <v>1.0078263143686221</v>
+        <v>2.5406365095990759</v>
       </c>
       <c r="E10">
-        <v>6.0006271808677916</v>
+        <v>8.2295019328638297</v>
       </c>
       <c r="F10">
-        <v>4.7404202564039329E-2</v>
+        <v>4.7620373512172173E-2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -607,22 +607,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.7553666350172995</v>
+        <v>0.73791735334228115</v>
       </c>
       <c r="B11">
-        <v>37.584700953101873</v>
+        <v>17.532947683997765</v>
       </c>
       <c r="C11">
-        <v>94.671406045885774</v>
+        <v>74.71621974934817</v>
       </c>
       <c r="D11">
-        <v>3.8234769808554332</v>
+        <v>1.7151629914073954</v>
       </c>
       <c r="E11">
-        <v>9.6308852427303506</v>
+        <v>7.3091243572754534</v>
       </c>
       <c r="F11">
-        <v>5.2927674406122491E-2</v>
+        <v>5.1617707535096702E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -630,22 +630,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.77101884284637578</v>
+        <v>0.70742467464911041</v>
       </c>
       <c r="B12">
-        <v>36.072520617315931</v>
+        <v>24.503934455392354</v>
       </c>
       <c r="C12">
-        <v>96.858964708091023</v>
+        <v>80.543674674077977</v>
       </c>
       <c r="D12">
-        <v>3.5126446023608984</v>
+        <v>2.3519603847673016</v>
       </c>
       <c r="E12">
-        <v>9.4318643041767132</v>
+        <v>7.7308210410809961</v>
       </c>
       <c r="F12">
-        <v>5.0736235973598241E-2</v>
+        <v>5.0494500644614491E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.73639957072929874</v>
+        <v>0.79526893150786004</v>
       </c>
       <c r="B13">
-        <v>25.073529439068874</v>
+        <v>45.264207191774972</v>
       </c>
       <c r="C13">
-        <v>84.569822870682586</v>
+        <v>105.58383424850257</v>
       </c>
       <c r="D13">
-        <v>2.3602691297725311</v>
+        <v>4.585760937205519</v>
       </c>
       <c r="E13">
-        <v>7.9608873061556373</v>
+        <v>10.696801131317436</v>
       </c>
       <c r="F13">
-        <v>4.9508937666897346E-2</v>
+        <v>5.2736992605073613E-2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -676,22 +676,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.78937253014756359</v>
+        <v>0.72698938852883221</v>
       </c>
       <c r="B14">
-        <v>51.509213244081955</v>
+        <v>15.876638977647739</v>
       </c>
       <c r="C14">
-        <v>114.04499948835604</v>
+        <v>74.349991234448026</v>
       </c>
       <c r="D14">
-        <v>5.026168098879344</v>
+        <v>1.4841967962396112</v>
       </c>
       <c r="E14">
-        <v>11.128287585152426</v>
+        <v>6.9504647013747398</v>
       </c>
       <c r="F14">
-        <v>5.0490931836318892E-2</v>
+        <v>4.9731329603685218E-2</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -699,45 +699,45 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.7364431688338362</v>
+        <v>0.79084963126199692</v>
       </c>
       <c r="B15">
-        <v>22.427106176196755</v>
+        <v>57.542893946173358</v>
       </c>
       <c r="C15">
-        <v>82.342262329196785</v>
+        <v>120.99829947516338</v>
       </c>
       <c r="D15">
-        <v>2.0932746630831751</v>
+        <v>5.4546877495578148</v>
       </c>
       <c r="E15">
-        <v>7.6855645164598716</v>
+        <v>11.469842696508877</v>
       </c>
       <c r="F15">
-        <v>4.9165734756878285E-2</v>
+        <v>4.9906563956462667E-2</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.75885757121562525</v>
+        <v>0.69982646308102248</v>
       </c>
       <c r="B16">
-        <v>24.56939057809128</v>
+        <v>20.982903713975535</v>
       </c>
       <c r="C16">
-        <v>83.465719349562605</v>
+        <v>80.960576724674539</v>
       </c>
       <c r="D16">
-        <v>2.3685989495668824</v>
+        <v>1.8624247814578665</v>
       </c>
       <c r="E16">
-        <v>8.0464680044813992</v>
+        <v>7.18599229489514</v>
       </c>
       <c r="F16">
-        <v>5.1538531317300615E-2</v>
+        <v>4.6672465132562679E-2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -745,22 +745,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.75499272534136153</v>
+        <v>0.78387146805161301</v>
       </c>
       <c r="B17">
-        <v>26.310087940233412</v>
+        <v>42.460542406016948</v>
       </c>
       <c r="C17">
-        <v>86.372059966978725</v>
+        <v>103.78781974188878</v>
       </c>
       <c r="D17">
-        <v>2.4743360615626311</v>
+        <v>4.1347821306861725</v>
       </c>
       <c r="E17">
-        <v>8.1228729897529011</v>
+        <v>10.10679558325254</v>
       </c>
       <c r="F17">
-        <v>5.0280914852756944E-2</v>
+        <v>5.112710050756538E-2</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.72969388384089662</v>
+        <v>0.68897419795921178</v>
       </c>
       <c r="B18">
-        <v>23.829934319242117</v>
+        <v>19.180963831982119</v>
       </c>
       <c r="C18">
-        <v>82.784056247226488</v>
+        <v>75.71117641154558</v>
       </c>
       <c r="D18">
-        <v>2.2429586296518425</v>
+        <v>1.7325979090311128</v>
       </c>
       <c r="E18">
-        <v>7.7919313947654025</v>
+        <v>6.8389173291806387</v>
       </c>
       <c r="F18">
-        <v>4.9509269918887523E-2</v>
+        <v>4.8750865529791888E-2</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.83058960807296511</v>
+        <v>0.70946818431847314</v>
       </c>
       <c r="B19">
-        <v>62.827359516961351</v>
+        <v>21.673295978035863</v>
       </c>
       <c r="C19">
-        <v>128.83454092556946</v>
+        <v>79.990536612121275</v>
       </c>
       <c r="D19">
-        <v>6.0864422419630255</v>
+        <v>2.0580289189785765</v>
       </c>
       <c r="E19">
-        <v>12.480931844694295</v>
+        <v>7.5956530912138218</v>
       </c>
       <c r="F19">
-        <v>5.0333287399825073E-2</v>
+        <v>4.866267173168002E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -814,22 +814,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.76502643539113813</v>
+        <v>0.71863316114076747</v>
       </c>
       <c r="B20">
-        <v>25.867746352578401</v>
+        <v>27.706344470479248</v>
       </c>
       <c r="C20">
-        <v>86.314173228145918</v>
+        <v>87.272757771030939</v>
       </c>
       <c r="D20">
-        <v>2.5262059066610414</v>
+        <v>2.5394071910648628</v>
       </c>
       <c r="E20">
-        <v>8.4293146865410016</v>
+        <v>7.9989285090984215</v>
       </c>
       <c r="F20">
-        <v>5.0625089020794385E-2</v>
+        <v>4.8257608361597343E-2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -837,22 +837,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.75971525618793423</v>
+        <v>0.76523918462713159</v>
       </c>
       <c r="B21">
-        <v>18.047161336367843</v>
+        <v>35.411129346305614</v>
       </c>
       <c r="C21">
-        <v>80.670616457188416</v>
+        <v>97.194513377923641</v>
       </c>
       <c r="D21">
-        <v>1.7003483759088034</v>
+        <v>3.3669342852029498</v>
       </c>
       <c r="E21">
-        <v>7.6005388947306143</v>
+        <v>9.241375394311989</v>
       </c>
       <c r="F21">
-        <v>4.852592401503248E-2</v>
+        <v>4.9543364878525724E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -860,22 +860,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.7540495202562687</v>
+        <v>0.74184402531176219</v>
       </c>
       <c r="B22">
-        <v>37.477206340521889</v>
+        <v>42.330834448020511</v>
       </c>
       <c r="C22">
-        <v>98.175738456586188</v>
+        <v>105.66214728618083</v>
       </c>
       <c r="D22">
-        <v>3.531999222949084</v>
+        <v>3.8088074177001743</v>
       </c>
       <c r="E22">
-        <v>9.2524674542293042</v>
+        <v>9.5071778197028483</v>
       </c>
       <c r="F22">
-        <v>4.9691450120369782E-2</v>
+        <v>4.6854801649699226E-2</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.75304018556219432</v>
+        <v>0.77794950685312725</v>
       </c>
       <c r="B23">
-        <v>32.351597162537786</v>
+        <v>38.162333865269808</v>
       </c>
       <c r="C23">
-        <v>93.560437346668564</v>
+        <v>102.21018411363126</v>
       </c>
       <c r="D23">
-        <v>3.0294382270324327</v>
+        <v>3.4048301507123711</v>
       </c>
       <c r="E23">
-        <v>8.7610996147071472</v>
+        <v>9.1191570675048368</v>
       </c>
       <c r="F23">
-        <v>4.9211204348709743E-2</v>
+        <v>4.8585518723044438E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -906,22 +906,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.7662876259813014</v>
+        <v>0.74720762236095206</v>
       </c>
       <c r="B24">
-        <v>25.640817030998509</v>
+        <v>29.536677753790627</v>
       </c>
       <c r="C24">
-        <v>84.596139086105495</v>
+        <v>90.678685216728695</v>
       </c>
       <c r="D24">
-        <v>2.5826067218696007</v>
+        <v>2.6817136786378946</v>
       </c>
       <c r="E24">
-        <v>8.5207330633755429</v>
+        <v>8.2329594592063788</v>
       </c>
       <c r="F24">
-        <v>5.1991073868787145E-2</v>
+        <v>4.8883420964801083E-2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -929,22 +929,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.76266484555467251</v>
+        <v>0.74011503038502791</v>
       </c>
       <c r="B25">
-        <v>32.463498915395441</v>
+        <v>33.032488982921024</v>
       </c>
       <c r="C25">
-        <v>93.385883397313279</v>
+        <v>94.827884420885752</v>
       </c>
       <c r="D25">
-        <v>3.1662609654673677</v>
+        <v>2.9613819440532065</v>
       </c>
       <c r="E25">
-        <v>9.1082011245058805</v>
+        <v>8.5013752630620782</v>
       </c>
       <c r="F25">
-        <v>5.0074523644493024E-2</v>
+        <v>4.7907454925376562E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -952,22 +952,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.70507579700663747</v>
+        <v>0.75425761545695091</v>
       </c>
       <c r="B26">
-        <v>18.349010514343092</v>
+        <v>36.640929987698343</v>
       </c>
       <c r="C26">
-        <v>76.868347652778709</v>
+        <v>96.078445427831397</v>
       </c>
       <c r="D26">
-        <v>1.6951876851865915</v>
+        <v>3.4973887588711845</v>
       </c>
       <c r="E26">
-        <v>7.1015424085006673</v>
+        <v>9.1707190598582269</v>
       </c>
       <c r="F26">
-        <v>4.8194380284156867E-2</v>
+        <v>5.0759700157161393E-2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -975,22 +975,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.7173972097189073</v>
+        <v>0.7108519425191977</v>
       </c>
       <c r="B27">
-        <v>26.071615735206002</v>
+        <v>22.955840876991068</v>
       </c>
       <c r="C27">
-        <v>83.537421179490494</v>
+        <v>81.834816086869324</v>
       </c>
       <c r="D27">
-        <v>2.515789421828651</v>
+        <v>2.0386876521024933</v>
       </c>
       <c r="E27">
-        <v>8.0609718501800511</v>
+        <v>7.2676766650530515</v>
       </c>
       <c r="F27">
-        <v>4.9935588941806622E-2</v>
+        <v>4.8292412698102624E-2</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -998,22 +998,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.73459872911256674</v>
+        <v>0.75789082262237206</v>
       </c>
       <c r="B28">
-        <v>32.314903628775944</v>
+        <v>30.977183771111584</v>
       </c>
       <c r="C28">
-        <v>92.714939356203146</v>
+        <v>91.557551944984823</v>
       </c>
       <c r="D28">
-        <v>3.0516030541294494</v>
+        <v>2.9911530679389848</v>
       </c>
       <c r="E28">
-        <v>8.7553778700076936</v>
+        <v>8.8407859932257828</v>
       </c>
       <c r="F28">
-        <v>4.8648893681299127E-2</v>
+        <v>5.0042008358029737E-2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1021,45 +1021,45 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.82079605570339176</v>
+        <v>0.77875803579585778</v>
       </c>
       <c r="B29">
-        <v>61.759860960662223</v>
+        <v>60.006408625845623</v>
       </c>
       <c r="C29">
-        <v>125.50736113830438</v>
+        <v>121.39034789939322</v>
       </c>
       <c r="D29">
-        <v>6.212959170280115</v>
+        <v>5.8648793833277466</v>
       </c>
       <c r="E29">
-        <v>12.625872179643668</v>
+        <v>11.864395237669518</v>
       </c>
       <c r="F29">
-        <v>5.150294856526879E-2</v>
+        <v>5.0670228808434345E-2</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.76248080962139242</v>
+        <v>0.74438390542190935</v>
       </c>
       <c r="B30">
-        <v>24.235345048301294</v>
+        <v>19.139658529918773</v>
       </c>
       <c r="C30">
-        <v>85.17545902178054</v>
+        <v>79.019990028116993</v>
       </c>
       <c r="D30">
-        <v>2.3382758963332013</v>
+        <v>1.7513949112256104</v>
       </c>
       <c r="E30">
-        <v>8.2179033305616382</v>
+        <v>7.2308086481274296</v>
       </c>
       <c r="F30">
-        <v>5.0047875522728394E-2</v>
+        <v>4.9724768503948982E-2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1067,22 +1067,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.74406319883224037</v>
+        <v>0.75867205588262909</v>
       </c>
       <c r="B31">
-        <v>23.973007131816114</v>
+        <v>27.45659271301794</v>
       </c>
       <c r="C31">
-        <v>82.939432050006474</v>
+        <v>88.917634067688354</v>
       </c>
       <c r="D31">
-        <v>2.3166682005763342</v>
+        <v>2.5454519730663434</v>
       </c>
       <c r="E31">
-        <v>8.0149788363056942</v>
+        <v>8.2433960194440434</v>
       </c>
       <c r="F31">
-        <v>5.0473685651761802E-2</v>
+        <v>4.9375802242242854E-2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1090,22 +1090,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.72387175378439583</v>
+        <v>0.71391397815974456</v>
       </c>
       <c r="B32">
-        <v>30.471740183764204</v>
+        <v>31.934130600554457</v>
       </c>
       <c r="C32">
-        <v>87.12184390649027</v>
+        <v>90.766204891309911</v>
       </c>
       <c r="D32">
-        <v>2.9405223069662467</v>
+        <v>2.9103566464262998</v>
       </c>
       <c r="E32">
-        <v>8.4072561621395181</v>
+        <v>8.2720907915285036</v>
       </c>
       <c r="F32">
-        <v>5.111176899709758E-2</v>
+        <v>4.85390995824143E-2</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.70887144785382961</v>
+        <v>0.7284135356218675</v>
       </c>
       <c r="B33">
-        <v>27.0529450877771</v>
+        <v>18.470711053197491</v>
       </c>
       <c r="C33">
-        <v>84.29081329775299</v>
+        <v>77.637093097355489</v>
       </c>
       <c r="D33">
-        <v>2.4487189543242742</v>
+        <v>1.6982955912718416</v>
       </c>
       <c r="E33">
-        <v>7.6296503588761864</v>
+        <v>7.1383680112074233</v>
       </c>
       <c r="F33">
-        <v>4.9538633776740192E-2</v>
+        <v>4.9245095640847156E-2</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1136,22 +1136,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.76714083614160855</v>
+        <v>0.79249600011122801</v>
       </c>
       <c r="B34">
-        <v>43.123465656318231</v>
+        <v>31.414195152931246</v>
       </c>
       <c r="C34">
-        <v>105.09435866100054</v>
+        <v>93.480476605393989</v>
       </c>
       <c r="D34">
-        <v>4.0020093601975226</v>
+        <v>3.1010339743381663</v>
       </c>
       <c r="E34">
-        <v>9.753126300591223</v>
+        <v>9.2278707915138707</v>
       </c>
       <c r="F34">
-        <v>4.9516203426898955E-2</v>
+        <v>5.1074173065657806E-2</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.76197639816728846</v>
+        <v>0.72811312301067266</v>
       </c>
       <c r="B35">
-        <v>40.190884251174651</v>
+        <v>31.454694182911798</v>
       </c>
       <c r="C35">
-        <v>102.21746601636926</v>
+        <v>91.058072482904549</v>
       </c>
       <c r="D35">
-        <v>3.789545489360139</v>
+        <v>2.9045025984561539</v>
       </c>
       <c r="E35">
-        <v>9.6379501096653328</v>
+        <v>8.4082333339195738</v>
       </c>
       <c r="F35">
-        <v>4.9138699988453126E-2</v>
+        <v>4.8863882805163968E-2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1182,22 +1182,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.81717139685314244</v>
+        <v>0.75782899449938401</v>
       </c>
       <c r="B36">
-        <v>56.314898397218585</v>
+        <v>38.797747679599162</v>
       </c>
       <c r="C36">
-        <v>119.78600662496503</v>
+        <v>99.036157654391246</v>
       </c>
       <c r="D36">
-        <v>5.6550070626710749</v>
+        <v>3.721745918010344</v>
       </c>
       <c r="E36">
-        <v>12.028623557044329</v>
+        <v>9.5002271402335072</v>
       </c>
       <c r="F36">
-        <v>5.1498794942793608E-2</v>
+        <v>5.0321978605777369E-2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1205,22 +1205,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.73504610723593844</v>
+        <v>0.69026239589983396</v>
       </c>
       <c r="B37">
-        <v>17.528196622839513</v>
+        <v>17.902523179163225</v>
       </c>
       <c r="C37">
-        <v>79.377721182954744</v>
+        <v>76.905299747370023</v>
       </c>
       <c r="D37">
-        <v>1.616871186700451</v>
+        <v>1.5513118087938134</v>
       </c>
       <c r="E37">
-        <v>7.3221194974175452</v>
+        <v>6.6640941314786968</v>
       </c>
       <c r="F37">
-        <v>4.7537704612199805E-2</v>
+        <v>4.6795248362720247E-2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1228,22 +1228,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.73821022803450664</v>
+        <v>0.74795502661716307</v>
       </c>
       <c r="B38">
-        <v>25.334228514302048</v>
+        <v>23.066034348315924</v>
       </c>
       <c r="C38">
-        <v>85.665469648707486</v>
+        <v>82.012490102997859</v>
       </c>
       <c r="D38">
-        <v>2.3260936116422357</v>
+        <v>2.181586483797282</v>
       </c>
       <c r="E38">
-        <v>7.8654813418019751</v>
+        <v>7.7567447099688138</v>
       </c>
       <c r="F38">
-        <v>4.8943811806551621E-2</v>
+        <v>5.0754876916090388E-2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.81215994042472839</v>
+        <v>0.77366627904494267</v>
       </c>
       <c r="B39">
-        <v>49.102327387611972</v>
+        <v>42.282969516200417</v>
       </c>
       <c r="C39">
-        <v>112.18258400793988</v>
+        <v>102.49614788879349</v>
       </c>
       <c r="D39">
-        <v>4.7725519826627236</v>
+        <v>4.0699260765076906</v>
       </c>
       <c r="E39">
-        <v>10.903703392731572</v>
+        <v>9.865715435959638</v>
       </c>
       <c r="F39">
-        <v>5.1500103768633308E-2</v>
+        <v>5.1395146375271726E-2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.76200161905072505</v>
+        <v>0.77069192625489924</v>
       </c>
       <c r="B40">
-        <v>29.082836549036742</v>
+        <v>37.029033435558368</v>
       </c>
       <c r="C40">
-        <v>91.207594246401456</v>
+        <v>97.898259900801094</v>
       </c>
       <c r="D40">
-        <v>2.6050351837399508</v>
+        <v>3.5606106216592743</v>
       </c>
       <c r="E40">
-        <v>8.1697323999169136</v>
+        <v>9.413629028459038</v>
       </c>
       <c r="F40">
-        <v>4.9062669846553005E-2</v>
+        <v>5.0645751294045312E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.76737608833481286</v>
+        <v>0.75754283048746984</v>
       </c>
       <c r="B41">
-        <v>23.400622681964808</v>
+        <v>28.163964720501596</v>
       </c>
       <c r="C41">
-        <v>81.086063032547386</v>
+        <v>89.537875670598069</v>
       </c>
       <c r="D41">
-        <v>2.3393725933115013</v>
+        <v>2.6313302315954137</v>
       </c>
       <c r="E41">
-        <v>8.1062164941477146</v>
+        <v>8.3654315528016365</v>
       </c>
       <c r="F41">
-        <v>5.3211076047688495E-2</v>
+        <v>4.9372302905932385E-2</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.72705080135710498</v>
+        <v>0.77393545304212474</v>
       </c>
       <c r="B42">
-        <v>26.795153889598211</v>
+        <v>34.732598904279577</v>
       </c>
       <c r="C42">
-        <v>86.939571866062565</v>
+        <v>95.83214104127741</v>
       </c>
       <c r="D42">
-        <v>2.4574867835667238</v>
+        <v>3.3883443447013106</v>
       </c>
       <c r="E42">
-        <v>7.9735630446495565</v>
+        <v>9.3489201321419468</v>
       </c>
       <c r="F42">
-        <v>4.8353667776225816E-2</v>
+        <v>5.0667185119443188E-2</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1343,22 +1343,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.73268829675308833</v>
+        <v>0.73916561087315857</v>
       </c>
       <c r="B43">
-        <v>27.72637355101083</v>
+        <v>27.475500121325872</v>
       </c>
       <c r="C43">
-        <v>88.075695768525662</v>
+        <v>87.783472642317292</v>
       </c>
       <c r="D43">
-        <v>2.4814041204673583</v>
+        <v>2.5740586473093394</v>
       </c>
       <c r="E43">
-        <v>7.8824370591040109</v>
+        <v>8.2240470909723182</v>
       </c>
       <c r="F43">
-        <v>4.8563149996103498E-2</v>
+        <v>4.9026062722694067E-2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.73369030302728144</v>
+        <v>0.71369971983053515</v>
       </c>
       <c r="B44">
-        <v>25.219421974477754</v>
+        <v>23.530920835784826</v>
       </c>
       <c r="C44">
-        <v>85.9560165583285</v>
+        <v>78.098502272122872</v>
       </c>
       <c r="D44">
-        <v>2.2586001704357015</v>
+        <v>2.2695495003684178</v>
       </c>
       <c r="E44">
-        <v>7.6980461267148064</v>
+        <v>7.5325746088808527</v>
       </c>
       <c r="F44">
-        <v>4.8319488970648569E-2</v>
+        <v>5.2316756656197581E-2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.71445787955185247</v>
+        <v>0.76480275321791158</v>
       </c>
       <c r="B45">
-        <v>23.700453951678714</v>
+        <v>21.13720477345608</v>
       </c>
       <c r="C45">
-        <v>82.833474066949805</v>
+        <v>81.902114785941208</v>
       </c>
       <c r="D45">
-        <v>2.1189727877464191</v>
+        <v>2.056222667360291</v>
       </c>
       <c r="E45">
-        <v>7.4058445386837422</v>
+        <v>7.9674198519892903</v>
       </c>
       <c r="F45">
-        <v>4.8328861144526267E-2</v>
+        <v>5.034502663203292E-2</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1412,22 +1412,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.70887530439572299</v>
+        <v>0.70878880831396163</v>
       </c>
       <c r="B46">
-        <v>26.746166638948335</v>
+        <v>22.141569467039314</v>
       </c>
       <c r="C46">
-        <v>83.481245777150832</v>
+        <v>79.931092705800609</v>
       </c>
       <c r="D46">
-        <v>2.5115164905805707</v>
+        <v>2.0158888526823966</v>
       </c>
       <c r="E46">
-        <v>7.8390495450740971</v>
+        <v>7.277361210017812</v>
       </c>
       <c r="F46">
-        <v>4.9977919492732489E-2</v>
+        <v>4.9060021165812595E-2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1435,22 +1435,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.76803503687069896</v>
+        <v>0.71420358165831987</v>
       </c>
       <c r="B47">
-        <v>37.107188574822821</v>
+        <v>23.423962598431295</v>
       </c>
       <c r="C47">
-        <v>98.860760804905894</v>
+        <v>83.540367225666998</v>
       </c>
       <c r="D47">
-        <v>3.4439272132550998</v>
+        <v>2.149643406300668</v>
       </c>
       <c r="E47">
-        <v>9.1752912989513433</v>
+        <v>7.666593507053248</v>
       </c>
       <c r="F47">
-        <v>4.9748379511334796E-2</v>
+        <v>4.7521376974347565E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1458,22 +1458,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.71155580773566918</v>
+        <v>0.73963786230951867</v>
       </c>
       <c r="B48">
-        <v>22.126027210953644</v>
+        <v>22.797645277095182</v>
       </c>
       <c r="C48">
-        <v>79.9563794982529</v>
+        <v>82.326383941418015</v>
       </c>
       <c r="D48">
-        <v>2.0803129478077378</v>
+        <v>2.0838472966147119</v>
       </c>
       <c r="E48">
-        <v>7.5175850569188354</v>
+        <v>7.5251461513330442</v>
       </c>
       <c r="F48">
-        <v>4.9216771442143904E-2</v>
+        <v>4.9699548749404507E-2</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1481,68 +1481,68 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.73467305606025257</v>
+        <v>0.7670323114259453</v>
       </c>
       <c r="B49">
-        <v>30.480430952186502</v>
+        <v>34.676516025189798</v>
       </c>
       <c r="C49">
-        <v>89.975270252411917</v>
+        <v>97.076796419485831</v>
       </c>
       <c r="D49">
-        <v>2.8012874962441741</v>
+        <v>3.1725624197811388</v>
       </c>
       <c r="E49">
-        <v>8.2691284754027219</v>
+        <v>8.8815784125913861</v>
       </c>
       <c r="F49">
-        <v>4.9394069448808156E-2</v>
+        <v>4.9342348938517834E-2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.7986464585015246</v>
+        <v>0.70262390845894473</v>
       </c>
       <c r="B50">
-        <v>76.529420547057853</v>
+        <v>28.352060529406096</v>
       </c>
       <c r="C50">
-        <v>137.04473392535024</v>
+        <v>87.802911431309468</v>
       </c>
       <c r="D50">
-        <v>8.1248525656682187</v>
+        <v>2.5358922527820464</v>
       </c>
       <c r="E50">
-        <v>14.549545130294433</v>
+        <v>7.8533524094105767</v>
       </c>
       <c r="F50">
-        <v>5.2684161921658867E-2</v>
+        <v>4.7274270951533151E-2</v>
       </c>
       <c r="G50">
-        <v>0.996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.75689321669451393</v>
+        <v>0.68244210476833722</v>
       </c>
       <c r="B51">
-        <v>25.910905145288467</v>
+        <v>15.198206207523469</v>
       </c>
       <c r="C51">
-        <v>87.21627272898705</v>
+        <v>74.013086677070078</v>
       </c>
       <c r="D51">
-        <v>2.3979961336537556</v>
+        <v>1.3326135042438942</v>
       </c>
       <c r="E51">
-        <v>8.0716703497265652</v>
+        <v>6.489636832787073</v>
       </c>
       <c r="F51">
-        <v>4.9385118891010507E-2</v>
+        <v>4.6412887304714961E-2</v>
       </c>
       <c r="G51">
         <v>1</v>

--- a/pre_model.xlsx
+++ b/pre_model.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5AAE9-7F5E-40AC-B718-7855A234BDEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838E9158-669A-4608-AA81-27FC7A21B1C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2760" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="990" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -397,48 +397,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.76170829456818068</v>
+        <v>0.75060884653770721</v>
       </c>
       <c r="B2">
-        <v>42.589608590316516</v>
+        <v>17.93733084458913</v>
       </c>
       <c r="C2">
-        <v>101.95977921287218</v>
+        <v>76.911765583533679</v>
       </c>
       <c r="D2">
-        <v>4.2919824717057464</v>
+        <v>1.7941481155815091</v>
       </c>
       <c r="E2">
-        <v>10.275031860709174</v>
+        <v>5.7929561306145736</v>
       </c>
       <c r="F2">
-        <v>5.1319259256350912E-2</v>
+        <v>5.0910795490306415E-2</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.7419347221215975</v>
+        <v>0.725612584442618</v>
       </c>
       <c r="B3">
-        <v>23.319095291588699</v>
+        <v>39.342054650463773</v>
       </c>
       <c r="C3">
-        <v>81.737216994157947</v>
+        <v>99.781987366208</v>
       </c>
       <c r="D3">
-        <v>2.2173530696243393</v>
+        <v>3.5490064078102264</v>
       </c>
       <c r="E3">
-        <v>7.7721826999832624</v>
+        <v>7.5012307616612226</v>
       </c>
       <c r="F3">
-        <v>5.0801682799669158E-2</v>
+        <v>4.8022064343139194E-2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -446,22 +446,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.75650266550019374</v>
+        <v>0.76391208610666717</v>
       </c>
       <c r="B4">
-        <v>21.74995858865832</v>
+        <v>32.414565533027492</v>
       </c>
       <c r="C4">
-        <v>82.787092522924141</v>
+        <v>90.910300476448654</v>
       </c>
       <c r="D4">
-        <v>2.0243087646802973</v>
+        <v>3.2373553018461334</v>
       </c>
       <c r="E4">
-        <v>7.7051474058411937</v>
+        <v>7.1795276259366272</v>
       </c>
       <c r="F4">
-        <v>4.9576552287983439E-2</v>
+        <v>5.2237113481558628E-2</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -469,22 +469,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.73219889050559883</v>
+        <v>0.7532797461131876</v>
       </c>
       <c r="B5">
-        <v>19.777126073344675</v>
+        <v>31.179893583031149</v>
       </c>
       <c r="C5">
-        <v>76.862387532473377</v>
+        <v>91.235043031947413</v>
       </c>
       <c r="D5">
-        <v>2.004664436879886</v>
+        <v>3.0024086279369611</v>
       </c>
       <c r="E5">
-        <v>7.7909851132364762</v>
+        <v>6.9853051723818442</v>
       </c>
       <c r="F5">
-        <v>5.1305634539649432E-2</v>
+        <v>5.0172533281525634E-2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -492,22 +492,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.76072617852756585</v>
+        <v>0.76914987209426888</v>
       </c>
       <c r="B6">
-        <v>18.790402548832208</v>
+        <v>44.433436770740975</v>
       </c>
       <c r="C6">
-        <v>76.152061494575463</v>
+        <v>103.36115277236942</v>
       </c>
       <c r="D6">
-        <v>1.9157034960677102</v>
+        <v>4.4973937260622545</v>
       </c>
       <c r="E6">
-        <v>7.7637916515518164</v>
+        <v>8.4618466132946111</v>
       </c>
       <c r="F6">
-        <v>5.3047711137302604E-2</v>
+        <v>5.2209718908706126E-2</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -515,22 +515,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.78198658541073418</v>
+        <v>0.77830508662336917</v>
       </c>
       <c r="B7">
-        <v>30.949255535627191</v>
+        <v>30.26911928039025</v>
       </c>
       <c r="C7">
-        <v>93.088123334377968</v>
+        <v>92.438323829469311</v>
       </c>
       <c r="D7">
-        <v>3.1223973191129151</v>
+        <v>2.8136449192961801</v>
       </c>
       <c r="E7">
-        <v>9.3914409800883085</v>
+        <v>6.7925400663883568</v>
       </c>
       <c r="F7">
-        <v>5.0338000231568689E-2</v>
+        <v>5.0076567153690466E-2</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -538,22 +538,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.72813819247655476</v>
+        <v>0.78199935070192161</v>
       </c>
       <c r="B8">
-        <v>19.065649688820343</v>
+        <v>29.145152932073223</v>
       </c>
       <c r="C8">
-        <v>77.85798978400922</v>
+        <v>91.734602052110802</v>
       </c>
       <c r="D8">
-        <v>1.7844340022047926</v>
+        <v>2.7903886155884901</v>
       </c>
       <c r="E8">
-        <v>7.2870553367696775</v>
+        <v>6.7827704942340166</v>
       </c>
       <c r="F8">
-        <v>4.9539663928848496E-2</v>
+        <v>4.9976432877826382E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -561,22 +561,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.74056742411636278</v>
+        <v>0.7576628332976163</v>
       </c>
       <c r="B9">
-        <v>32.138437648088072</v>
+        <v>29.170673045004708</v>
       </c>
       <c r="C9">
-        <v>93.809042064556294</v>
+        <v>88.19800772983946</v>
       </c>
       <c r="D9">
-        <v>2.960320701653794</v>
+        <v>2.741872757030178</v>
       </c>
       <c r="E9">
-        <v>8.640894503549033</v>
+        <v>6.6900971892451917</v>
       </c>
       <c r="F9">
-        <v>4.8033738674927252E-2</v>
+        <v>5.1343184464825567E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -584,22 +584,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.72428131806739449</v>
+        <v>0.76975277557298172</v>
       </c>
       <c r="B10">
-        <v>27.170107183695386</v>
+        <v>29.991575363484838</v>
       </c>
       <c r="C10">
-        <v>88.00804394471335</v>
+        <v>91.352230183605158</v>
       </c>
       <c r="D10">
-        <v>2.5406365095990759</v>
+        <v>2.9340243304276732</v>
       </c>
       <c r="E10">
-        <v>8.2295019328638297</v>
+        <v>6.8368318519158855</v>
       </c>
       <c r="F10">
-        <v>4.7620373512172173E-2</v>
+        <v>5.0178915321521494E-2</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -607,22 +607,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.73791735334228115</v>
+        <v>0.75424744346321992</v>
       </c>
       <c r="B11">
-        <v>17.532947683997765</v>
+        <v>27.066055014504204</v>
       </c>
       <c r="C11">
-        <v>74.71621974934817</v>
+        <v>88.213983650660694</v>
       </c>
       <c r="D11">
-        <v>1.7151629914073954</v>
+        <v>2.5399952233467649</v>
       </c>
       <c r="E11">
-        <v>7.3091243572754534</v>
+        <v>6.4783803175230599</v>
       </c>
       <c r="F11">
-        <v>5.1617707535096702E-2</v>
+        <v>4.9339198254852161E-2</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -630,22 +630,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.70742467464911041</v>
+        <v>0.71804210393656787</v>
       </c>
       <c r="B12">
-        <v>24.503934455392354</v>
+        <v>20.7509515667406</v>
       </c>
       <c r="C12">
-        <v>80.543674674077977</v>
+        <v>79.431662114250301</v>
       </c>
       <c r="D12">
-        <v>2.3519603847673016</v>
+        <v>1.9255330169763822</v>
       </c>
       <c r="E12">
-        <v>7.7308210410809961</v>
+        <v>5.8706638224458567</v>
       </c>
       <c r="F12">
-        <v>5.0494500644614491E-2</v>
+        <v>4.8945699343924384E-2</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -653,22 +653,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.79526893150786004</v>
+        <v>0.72969021507470788</v>
       </c>
       <c r="B13">
-        <v>45.264207191774972</v>
+        <v>17.663758434717803</v>
       </c>
       <c r="C13">
-        <v>105.58383424850257</v>
+        <v>76.243999477234965</v>
       </c>
       <c r="D13">
-        <v>4.585760937205519</v>
+        <v>1.6594596252175629</v>
       </c>
       <c r="E13">
-        <v>10.696801131317436</v>
+        <v>5.5629058597687875</v>
       </c>
       <c r="F13">
-        <v>5.2736992605073613E-2</v>
+        <v>4.9825005980777923E-2</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -676,22 +676,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.72698938852883221</v>
+        <v>0.73037249289813599</v>
       </c>
       <c r="B14">
-        <v>15.876638977647739</v>
+        <v>27.614924767291715</v>
       </c>
       <c r="C14">
-        <v>74.349991234448026</v>
+        <v>87.114538994539686</v>
       </c>
       <c r="D14">
-        <v>1.4841967962396112</v>
+        <v>2.5474826955799799</v>
       </c>
       <c r="E14">
-        <v>6.9504647013747398</v>
+        <v>6.5363347896885138</v>
       </c>
       <c r="F14">
-        <v>4.9731329603685218E-2</v>
+        <v>4.9100990141456156E-2</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -699,45 +699,45 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.79084963126199692</v>
+        <v>0.79248298328324662</v>
       </c>
       <c r="B15">
-        <v>57.542893946173358</v>
+        <v>30.316094039825636</v>
       </c>
       <c r="C15">
-        <v>120.99829947516338</v>
+        <v>89.832896322926231</v>
       </c>
       <c r="D15">
-        <v>5.4546877495578148</v>
+        <v>3.1531822308376602</v>
       </c>
       <c r="E15">
-        <v>11.469842696508877</v>
+        <v>7.1435352211937602</v>
       </c>
       <c r="F15">
-        <v>4.9906563956462667E-2</v>
+        <v>5.3261126463998019E-2</v>
       </c>
       <c r="G15">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.69982646308102248</v>
+        <v>0.72972493918378911</v>
       </c>
       <c r="B16">
-        <v>20.982903713975535</v>
+        <v>22.652764480584668</v>
       </c>
       <c r="C16">
-        <v>80.960576724674539</v>
+        <v>81.13848989954532</v>
       </c>
       <c r="D16">
-        <v>1.8624247814578665</v>
+        <v>2.0683499660115707</v>
       </c>
       <c r="E16">
-        <v>7.18599229489514</v>
+        <v>6.0084906047468589</v>
       </c>
       <c r="F16">
-        <v>4.6672465132562679E-2</v>
+        <v>4.9907900360741178E-2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -745,22 +745,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.78387146805161301</v>
+        <v>0.83699380961283731</v>
       </c>
       <c r="B17">
-        <v>42.460542406016948</v>
+        <v>48.572610071771713</v>
       </c>
       <c r="C17">
-        <v>103.78781974188878</v>
+        <v>114.27879125357646</v>
       </c>
       <c r="D17">
-        <v>4.1347821306861725</v>
+        <v>4.7134526072538119</v>
       </c>
       <c r="E17">
-        <v>10.10679558325254</v>
+        <v>8.6895351473200559</v>
       </c>
       <c r="F17">
-        <v>5.112710050756538E-2</v>
+        <v>5.0953733396675673E-2</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -768,22 +768,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.68897419795921178</v>
+        <v>0.74403484445483004</v>
       </c>
       <c r="B18">
-        <v>19.180963831982119</v>
+        <v>22.829316033932244</v>
       </c>
       <c r="C18">
-        <v>75.71117641154558</v>
+        <v>81.947877575725514</v>
       </c>
       <c r="D18">
-        <v>1.7325979090311128</v>
+        <v>2.1434703319143562</v>
       </c>
       <c r="E18">
-        <v>6.8389173291806387</v>
+        <v>6.0941790146422585</v>
       </c>
       <c r="F18">
-        <v>4.8750865529791888E-2</v>
+        <v>5.0341877410453768E-2</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -791,22 +791,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.70946818431847314</v>
+        <v>0.71326439552812915</v>
       </c>
       <c r="B19">
-        <v>21.673295978035863</v>
+        <v>29.672638026885437</v>
       </c>
       <c r="C19">
-        <v>79.990536612121275</v>
+        <v>87.098047280931382</v>
       </c>
       <c r="D19">
-        <v>2.0580289189785765</v>
+        <v>2.6810272260365888</v>
       </c>
       <c r="E19">
-        <v>7.5956530912138218</v>
+        <v>6.6696149591829759</v>
       </c>
       <c r="F19">
-        <v>4.866267173168002E-2</v>
+        <v>4.9682842824694415E-2</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -814,22 +814,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.71863316114076747</v>
+        <v>0.74505849348139175</v>
       </c>
       <c r="B20">
-        <v>27.706344470479248</v>
+        <v>23.706315255598188</v>
       </c>
       <c r="C20">
-        <v>87.272757771030939</v>
+        <v>83.424712784372062</v>
       </c>
       <c r="D20">
-        <v>2.5394071910648628</v>
+        <v>2.2735474636958024</v>
       </c>
       <c r="E20">
-        <v>7.9989285090984215</v>
+        <v>6.2008234985261961</v>
       </c>
       <c r="F20">
-        <v>4.8257608361597343E-2</v>
+        <v>4.9904788092976167E-2</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -837,22 +837,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.76523918462713159</v>
+        <v>0.7074885768305168</v>
       </c>
       <c r="B21">
-        <v>35.411129346305614</v>
+        <v>22.76556695261463</v>
       </c>
       <c r="C21">
-        <v>97.194513377923641</v>
+        <v>82.79488812496669</v>
       </c>
       <c r="D21">
-        <v>3.3669342852029498</v>
+        <v>1.9988973080181818</v>
       </c>
       <c r="E21">
-        <v>9.241375394311989</v>
+        <v>5.9696840511435196</v>
       </c>
       <c r="F21">
-        <v>4.9543364878525724E-2</v>
+        <v>4.7142867053200456E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -860,22 +860,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.74184402531176219</v>
+        <v>0.66311991671858295</v>
       </c>
       <c r="B22">
-        <v>42.330834448020511</v>
+        <v>10.518590112273095</v>
       </c>
       <c r="C22">
-        <v>105.66214728618083</v>
+        <v>64.453536169242398</v>
       </c>
       <c r="D22">
-        <v>3.8088074177001743</v>
+        <v>0.96745394426770659</v>
       </c>
       <c r="E22">
-        <v>9.5071778197028483</v>
+        <v>4.9281545457483009</v>
       </c>
       <c r="F22">
-        <v>4.6854801649699226E-2</v>
+        <v>4.9179240191927279E-2</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -883,22 +883,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.77794950685312725</v>
+        <v>0.74064212218357728</v>
       </c>
       <c r="B23">
-        <v>38.162333865269808</v>
+        <v>19.443624285392623</v>
       </c>
       <c r="C23">
-        <v>102.21018411363126</v>
+        <v>78.734738620062544</v>
       </c>
       <c r="D23">
-        <v>3.4048301507123711</v>
+        <v>1.8128072951115493</v>
       </c>
       <c r="E23">
-        <v>9.1191570675048368</v>
+        <v>5.740756355613172</v>
       </c>
       <c r="F23">
-        <v>4.8585518723044438E-2</v>
+        <v>4.996648354443177E-2</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -906,22 +906,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.74720762236095206</v>
+        <v>0.69692718728423009</v>
       </c>
       <c r="B24">
-        <v>29.536677753790627</v>
+        <v>17.116172836133327</v>
       </c>
       <c r="C24">
-        <v>90.678685216728695</v>
+        <v>74.952729113887386</v>
       </c>
       <c r="D24">
-        <v>2.6817136786378946</v>
+        <v>1.5570091853608712</v>
       </c>
       <c r="E24">
-        <v>8.2329594592063788</v>
+        <v>5.5182349416233061</v>
       </c>
       <c r="F24">
-        <v>4.8883420964801083E-2</v>
+        <v>4.8199770673572541E-2</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -929,22 +929,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.74011503038502791</v>
+        <v>0.72309835707524051</v>
       </c>
       <c r="B25">
-        <v>33.032488982921024</v>
+        <v>25.520453693969515</v>
       </c>
       <c r="C25">
-        <v>94.827884420885752</v>
+        <v>82.313401377222448</v>
       </c>
       <c r="D25">
-        <v>2.9613819440532065</v>
+        <v>2.4960121196106475</v>
       </c>
       <c r="E25">
-        <v>8.5013752630620782</v>
+        <v>6.450611086607454</v>
       </c>
       <c r="F25">
-        <v>4.7907454925376562E-2</v>
+        <v>5.092874285082867E-2</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -952,22 +952,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.75425761545695091</v>
+        <v>0.72975366261422026</v>
       </c>
       <c r="B26">
-        <v>36.640929987698343</v>
+        <v>52.306279980962174</v>
       </c>
       <c r="C26">
-        <v>96.078445427831397</v>
+        <v>113.27647772300105</v>
       </c>
       <c r="D26">
-        <v>3.4973887588711845</v>
+        <v>4.7236295700654356</v>
       </c>
       <c r="E26">
-        <v>9.1707190598582269</v>
+        <v>8.6296726121600962</v>
       </c>
       <c r="F26">
-        <v>5.0759700157161393E-2</v>
+        <v>4.7876089607041324E-2</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -975,22 +975,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.7108519425191977</v>
+        <v>0.69693839840484517</v>
       </c>
       <c r="B27">
-        <v>22.955840876991068</v>
+        <v>19.966905364790321</v>
       </c>
       <c r="C27">
-        <v>81.834816086869324</v>
+        <v>78.194966505385821</v>
       </c>
       <c r="D27">
-        <v>2.0386876521024933</v>
+        <v>1.8276597271718318</v>
       </c>
       <c r="E27">
-        <v>7.2676766650530515</v>
+        <v>5.7575333552418453</v>
       </c>
       <c r="F27">
-        <v>4.8292412698102624E-2</v>
+        <v>4.7876462636943416E-2</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -998,22 +998,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.75789082262237206</v>
+        <v>0.75641279193433819</v>
       </c>
       <c r="B28">
-        <v>30.977183771111584</v>
+        <v>39.765045227399256</v>
       </c>
       <c r="C28">
-        <v>91.557551944984823</v>
+        <v>101.74766411641966</v>
       </c>
       <c r="D28">
-        <v>2.9911530679389848</v>
+        <v>3.7390134726386344</v>
       </c>
       <c r="E28">
-        <v>8.8407859932257828</v>
+        <v>7.6670930276893703</v>
       </c>
       <c r="F28">
-        <v>5.0042008358029737E-2</v>
+        <v>4.8814509970202674E-2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1021,45 +1021,45 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.77875803579585778</v>
+        <v>0.72044352975462789</v>
       </c>
       <c r="B29">
-        <v>60.006408625845623</v>
+        <v>22.283880577619556</v>
       </c>
       <c r="C29">
-        <v>121.39034789939322</v>
+        <v>81.254149434147138</v>
       </c>
       <c r="D29">
-        <v>5.8648793833277466</v>
+        <v>2.0272204605625004</v>
       </c>
       <c r="E29">
-        <v>11.864395237669518</v>
+        <v>5.9918936006119141</v>
       </c>
       <c r="F29">
-        <v>5.0670228808434345E-2</v>
+        <v>4.8868254713739803E-2</v>
       </c>
       <c r="G29">
-        <v>0.998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.74438390542190935</v>
+        <v>0.74928875978860821</v>
       </c>
       <c r="B30">
-        <v>19.139658529918773</v>
+        <v>33.197396996413516</v>
       </c>
       <c r="C30">
-        <v>79.019990028116993</v>
+        <v>91.86328893346564</v>
       </c>
       <c r="D30">
-        <v>1.7513949112256104</v>
+        <v>3.141650308568388</v>
       </c>
       <c r="E30">
-        <v>7.2308086481274296</v>
+        <v>7.0935228703355477</v>
       </c>
       <c r="F30">
-        <v>4.9724768503948982E-2</v>
+        <v>5.1088544641413526E-2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1067,22 +1067,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.75867205588262909</v>
+        <v>0.70993696600097378</v>
       </c>
       <c r="B31">
-        <v>27.45659271301794</v>
+        <v>19.158271633432161</v>
       </c>
       <c r="C31">
-        <v>88.917634067688354</v>
+        <v>79.81848243303682</v>
       </c>
       <c r="D31">
-        <v>2.5454519730663434</v>
+        <v>1.7143125710814313</v>
       </c>
       <c r="E31">
-        <v>8.2433960194440434</v>
+        <v>5.6422845681348157</v>
       </c>
       <c r="F31">
-        <v>4.9375802242242854E-2</v>
+        <v>4.681401245678507E-2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1090,22 +1090,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.71391397815974456</v>
+        <v>0.76916050160315486</v>
       </c>
       <c r="B32">
-        <v>31.934130600554457</v>
+        <v>42.819268553830632</v>
       </c>
       <c r="C32">
-        <v>90.766204891309911</v>
+        <v>102.30744297372064</v>
       </c>
       <c r="D32">
-        <v>2.9103566464262998</v>
+        <v>4.3137285215789536</v>
       </c>
       <c r="E32">
-        <v>8.2720907915285036</v>
+        <v>8.3067275465187755</v>
       </c>
       <c r="F32">
-        <v>4.85390995824143E-2</v>
+        <v>5.1718548037741313E-2</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.7284135356218675</v>
+        <v>0.74769382819429109</v>
       </c>
       <c r="B33">
-        <v>18.470711053197491</v>
+        <v>25.373822657878936</v>
       </c>
       <c r="C33">
-        <v>77.637093097355489</v>
+        <v>84.669466555868297</v>
       </c>
       <c r="D33">
-        <v>1.6982955912718416</v>
+        <v>2.4045846266431106</v>
       </c>
       <c r="E33">
-        <v>7.1383680112074233</v>
+        <v>6.3238165282161347</v>
       </c>
       <c r="F33">
-        <v>4.9245095640847156E-2</v>
+        <v>5.0438364712295111E-2</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1136,22 +1136,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.79249600011122801</v>
+        <v>0.7884147116731981</v>
       </c>
       <c r="B34">
-        <v>31.414195152931246</v>
+        <v>35.301919709396081</v>
       </c>
       <c r="C34">
-        <v>93.480476605393989</v>
+        <v>96.096174001997724</v>
       </c>
       <c r="D34">
-        <v>3.1010339743381663</v>
+        <v>3.5119394971299283</v>
       </c>
       <c r="E34">
-        <v>9.2278707915138707</v>
+        <v>7.4599319181177659</v>
       </c>
       <c r="F34">
-        <v>5.1074173065657806E-2</v>
+        <v>5.1874291138012722E-2</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1159,22 +1159,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.72811312301067266</v>
+        <v>0.71284147261838038</v>
       </c>
       <c r="B35">
-        <v>31.454694182911798</v>
+        <v>20.966174730550097</v>
       </c>
       <c r="C35">
-        <v>91.058072482904549</v>
+        <v>78.699536320300723</v>
       </c>
       <c r="D35">
-        <v>2.9045025984561539</v>
+        <v>1.9086362942699686</v>
       </c>
       <c r="E35">
-        <v>8.4082333339195738</v>
+        <v>5.8643393844406155</v>
       </c>
       <c r="F35">
-        <v>4.8863882805163968E-2</v>
+        <v>4.9388530512654565E-2</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1182,22 +1182,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.75782899449938401</v>
+        <v>0.75551490918050745</v>
       </c>
       <c r="B36">
-        <v>38.797747679599162</v>
+        <v>22.870766288473664</v>
       </c>
       <c r="C36">
-        <v>99.036157654391246</v>
+        <v>81.319160583144395</v>
       </c>
       <c r="D36">
-        <v>3.721745918010344</v>
+        <v>2.2613225046524987</v>
       </c>
       <c r="E36">
-        <v>9.5002271402335072</v>
+        <v>6.2403448475091405</v>
       </c>
       <c r="F36">
-        <v>5.0321978605777369E-2</v>
+        <v>5.1704750373229323E-2</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1205,22 +1205,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.69026239589983396</v>
+        <v>0.7497285786269734</v>
       </c>
       <c r="B37">
-        <v>17.902523179163225</v>
+        <v>34.226438217921078</v>
       </c>
       <c r="C37">
-        <v>76.905299747370023</v>
+        <v>92.379224526145862</v>
       </c>
       <c r="D37">
-        <v>1.5513118087938134</v>
+        <v>3.3164494575375301</v>
       </c>
       <c r="E37">
-        <v>6.6640941314786968</v>
+        <v>7.2512974478033012</v>
       </c>
       <c r="F37">
-        <v>4.6795248362720247E-2</v>
+        <v>5.1569572240492044E-2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1228,22 +1228,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.74795502661716307</v>
+        <v>0.73434959664295962</v>
       </c>
       <c r="B38">
-        <v>23.066034348315924</v>
+        <v>25.737942446140611</v>
       </c>
       <c r="C38">
-        <v>82.012490102997859</v>
+        <v>84.283914818689524</v>
       </c>
       <c r="D38">
-        <v>2.181586483797282</v>
+        <v>2.4974023023722429</v>
       </c>
       <c r="E38">
-        <v>7.7567447099688138</v>
+        <v>6.4782311605372449</v>
       </c>
       <c r="F38">
-        <v>5.0754876916090388E-2</v>
+        <v>5.0172510038438305E-2</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1251,22 +1251,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.77366627904494267</v>
+        <v>0.76143180796656118</v>
       </c>
       <c r="B39">
-        <v>42.282969516200417</v>
+        <v>33.501889774184427</v>
       </c>
       <c r="C39">
-        <v>102.49614788879349</v>
+        <v>94.424337419178812</v>
       </c>
       <c r="D39">
-        <v>4.0699260765076906</v>
+        <v>3.1465676193093604</v>
       </c>
       <c r="E39">
-        <v>9.865715435959638</v>
+        <v>7.0685314351095396</v>
       </c>
       <c r="F39">
-        <v>5.1395146375271726E-2</v>
+        <v>4.9993513878730238E-2</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1274,22 +1274,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.77069192625489924</v>
+        <v>0.75717089703212492</v>
       </c>
       <c r="B40">
-        <v>37.029033435558368</v>
+        <v>27.786679513318088</v>
       </c>
       <c r="C40">
-        <v>97.898259900801094</v>
+        <v>89.71819303200931</v>
       </c>
       <c r="D40">
-        <v>3.5606106216592743</v>
+        <v>2.6151919912736403</v>
       </c>
       <c r="E40">
-        <v>9.413629028459038</v>
+        <v>6.5439848156882423</v>
       </c>
       <c r="F40">
-        <v>5.0645751294045312E-2</v>
+        <v>4.8903755391258595E-2</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1297,22 +1297,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.75754283048746984</v>
+        <v>0.78722673900709095</v>
       </c>
       <c r="B41">
-        <v>28.163964720501596</v>
+        <v>25.05235765852284</v>
       </c>
       <c r="C41">
-        <v>89.537875670598069</v>
+        <v>85.996919558916318</v>
       </c>
       <c r="D41">
-        <v>2.6313302315954137</v>
+        <v>2.4272905482602321</v>
       </c>
       <c r="E41">
-        <v>8.3654315528016365</v>
+        <v>6.3321303675320877</v>
       </c>
       <c r="F41">
-        <v>4.9372302905932385E-2</v>
+        <v>5.166838283577907E-2</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1320,22 +1320,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.77393545304212474</v>
+        <v>0.75091332700099722</v>
       </c>
       <c r="B42">
-        <v>34.732598904279577</v>
+        <v>42.223102269704931</v>
       </c>
       <c r="C42">
-        <v>95.83214104127741</v>
+        <v>102.98195786767307</v>
       </c>
       <c r="D42">
-        <v>3.3883443447013106</v>
+        <v>3.8611292635412164</v>
       </c>
       <c r="E42">
-        <v>9.3489201321419468</v>
+        <v>7.8172770299954593</v>
       </c>
       <c r="F42">
-        <v>5.0667185119443188E-2</v>
+        <v>4.9435646515113681E-2</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1343,22 +1343,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.73916561087315857</v>
+        <v>0.75189287891470702</v>
       </c>
       <c r="B43">
-        <v>27.475500121325872</v>
+        <v>38.808165782969432</v>
       </c>
       <c r="C43">
-        <v>87.783472642317292</v>
+        <v>100.11086098529165</v>
       </c>
       <c r="D43">
-        <v>2.5740586473093394</v>
+        <v>3.6269247601027468</v>
       </c>
       <c r="E43">
-        <v>8.2240470909723182</v>
+        <v>7.5561381512676107</v>
       </c>
       <c r="F43">
-        <v>4.9026062722694067E-2</v>
+        <v>4.9060999777133719E-2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1366,22 +1366,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.71369971983053515</v>
+        <v>0.74224723059961417</v>
       </c>
       <c r="B44">
-        <v>23.530920835784826</v>
+        <v>40.720027750474443</v>
       </c>
       <c r="C44">
-        <v>78.098502272122872</v>
+        <v>103.71813688941963</v>
       </c>
       <c r="D44">
-        <v>2.2695495003684178</v>
+        <v>3.4799110532117874</v>
       </c>
       <c r="E44">
-        <v>7.5325746088808527</v>
+        <v>7.4636946220111415</v>
       </c>
       <c r="F44">
-        <v>5.2316756656197581E-2</v>
+        <v>4.7128222782849193E-2</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.76480275321791158</v>
+        <v>0.79935851491285603</v>
       </c>
       <c r="B45">
-        <v>21.13720477345608</v>
+        <v>70.272992473060896</v>
       </c>
       <c r="C45">
-        <v>81.902114785941208</v>
+        <v>131.72695041204085</v>
       </c>
       <c r="D45">
-        <v>2.056222667360291</v>
+        <v>6.9731015732049073</v>
       </c>
       <c r="E45">
-        <v>7.9674198519892903</v>
+        <v>10.971101326783703</v>
       </c>
       <c r="F45">
-        <v>5.034502663203292E-2</v>
+        <v>5.2029749862918091E-2</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1412,22 +1412,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.70878880831396163</v>
+        <v>0.77001378064028625</v>
       </c>
       <c r="B46">
-        <v>22.141569467039314</v>
+        <v>29.840521668769107</v>
       </c>
       <c r="C46">
-        <v>79.931092705800609</v>
+        <v>89.911477262022203</v>
       </c>
       <c r="D46">
-        <v>2.0158888526823966</v>
+        <v>2.9320579852720643</v>
       </c>
       <c r="E46">
-        <v>7.277361210017812</v>
+        <v>6.834485797533123</v>
       </c>
       <c r="F46">
-        <v>4.9060021165812595E-2</v>
+        <v>5.1273616211743492E-2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1435,22 +1435,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.71420358165831987</v>
+        <v>0.74089378783166526</v>
       </c>
       <c r="B47">
-        <v>23.423962598431295</v>
+        <v>22.158412070891174</v>
       </c>
       <c r="C47">
-        <v>83.540367225666998</v>
+        <v>80.889463377476929</v>
       </c>
       <c r="D47">
-        <v>2.149643406300668</v>
+        <v>2.1423700419801528</v>
       </c>
       <c r="E47">
-        <v>7.666593507053248</v>
+        <v>6.1207392523135695</v>
       </c>
       <c r="F47">
-        <v>4.7521376974347565E-2</v>
+        <v>5.0460107309441983E-2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1458,22 +1458,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.73963786230951867</v>
+        <v>0.73364204849810133</v>
       </c>
       <c r="B48">
-        <v>22.797645277095182</v>
+        <v>18.873227295776424</v>
       </c>
       <c r="C48">
-        <v>82.326383941418015</v>
+        <v>77.833393498831356</v>
       </c>
       <c r="D48">
-        <v>2.0838472966147119</v>
+        <v>1.7527118344386263</v>
       </c>
       <c r="E48">
-        <v>7.5251461513330442</v>
+        <v>5.728202562391072</v>
       </c>
       <c r="F48">
-        <v>4.9699548749404507E-2</v>
+        <v>4.9772047519098625E-2</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1481,45 +1481,45 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.7670323114259453</v>
+        <v>0.73458082317011764</v>
       </c>
       <c r="B49">
-        <v>34.676516025189798</v>
+        <v>23.5715264197128</v>
       </c>
       <c r="C49">
-        <v>97.076796419485831</v>
+        <v>81.737593655038935</v>
       </c>
       <c r="D49">
-        <v>3.1725624197811388</v>
+        <v>2.2047558597393646</v>
       </c>
       <c r="E49">
-        <v>8.8815784125913861</v>
+        <v>6.145302020883638</v>
       </c>
       <c r="F49">
-        <v>4.9342348938517834E-2</v>
+        <v>5.0516107282837376E-2</v>
       </c>
       <c r="G49">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.70262390845894473</v>
+        <v>0.71088430024223326</v>
       </c>
       <c r="B50">
-        <v>28.352060529406096</v>
+        <v>31.959196075071578</v>
       </c>
       <c r="C50">
-        <v>87.802911431309468</v>
+        <v>89.219385600821184</v>
       </c>
       <c r="D50">
-        <v>2.5358922527820464</v>
+        <v>3.1000004891827677</v>
       </c>
       <c r="E50">
-        <v>7.8533524094105767</v>
+        <v>7.054164465133919</v>
       </c>
       <c r="F50">
-        <v>4.7274270951533151E-2</v>
+        <v>4.965993344625956E-2</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1527,22 +1527,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.68244210476833722</v>
+        <v>0.72996874789307498</v>
       </c>
       <c r="B51">
-        <v>15.198206207523469</v>
+        <v>20.994755070397975</v>
       </c>
       <c r="C51">
-        <v>74.013086677070078</v>
+        <v>79.160016731352613</v>
       </c>
       <c r="D51">
-        <v>1.3326135042438942</v>
+        <v>1.9853365811798258</v>
       </c>
       <c r="E51">
-        <v>6.489636832787073</v>
+        <v>5.8856446982395028</v>
       </c>
       <c r="F51">
-        <v>4.6412887304714961E-2</v>
+        <v>5.0199636487363392E-2</v>
       </c>
       <c r="G51">
         <v>1</v>
